--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B60BC-BAA9-4CA7-8445-BD235BCED7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA58E66-D655-44CA-A80C-04EA2FAF377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6712" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6712" uniqueCount="1271">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -3791,9 +3791,6 @@
   </si>
   <si>
     <t>12/10/2021</t>
-  </si>
-  <si>
-    <t>12/10/2021.</t>
   </si>
   <si>
     <t>PAYPAL</t>
@@ -4679,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1715"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4711,7 +4708,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B2">
         <v>-129</v>
@@ -4723,12 +4720,12 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B3">
         <v>-56.94</v>
@@ -4745,7 +4742,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B4">
         <v>-2.02</v>
@@ -4757,12 +4754,12 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B5">
         <v>-30.45</v>
@@ -4774,12 +4771,12 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B6">
         <v>-15.98</v>
@@ -4791,12 +4788,12 @@
         <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B7">
         <v>-142.03</v>
@@ -4813,7 +4810,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B8">
         <v>-18.55</v>
@@ -4825,12 +4822,12 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B9">
         <v>-11.49</v>
@@ -4842,12 +4839,12 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B10">
         <v>-74.72</v>
@@ -4859,12 +4856,12 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B11">
         <v>-157.22999999999999</v>
@@ -4876,12 +4873,12 @@
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B12">
         <v>-4.24</v>
@@ -4898,7 +4895,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B13">
         <v>-174.82</v>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B14">
         <v>-1.73</v>
@@ -4932,7 +4929,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B15">
         <v>613.19000000000005</v>
@@ -4944,12 +4941,12 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B16">
         <v>-54.95</v>
@@ -4966,7 +4963,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B17">
         <v>-36.79</v>
@@ -4978,7 +4975,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5102,7 +5099,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B25">
         <v>-62.77</v>
@@ -5165,7 +5162,7 @@
         <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA58E66-D655-44CA-A80C-04EA2FAF377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DD0B6-71E1-420B-9088-9043AC9FC95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6712" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6796" uniqueCount="1282">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -3833,6 +3833,39 @@
   </si>
   <si>
     <t>12/21/2021</t>
+  </si>
+  <si>
+    <t>12/30/2021</t>
+  </si>
+  <si>
+    <t>1/7/2022</t>
+  </si>
+  <si>
+    <t>1/6/2022</t>
+  </si>
+  <si>
+    <t>SHELL C80174             BRIST</t>
+  </si>
+  <si>
+    <t>FPOS Subway              Flore</t>
+  </si>
+  <si>
+    <t>1/5/2022</t>
+  </si>
+  <si>
+    <t>1/4/2022</t>
+  </si>
+  <si>
+    <t>12/31/2021</t>
+  </si>
+  <si>
+    <t>FPOS WINGO'S RESTAURANT  WOODS</t>
+  </si>
+  <si>
+    <t>1/9/2022</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -4674,10 +4707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1715"/>
+  <dimension ref="A1:E1736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A1722" workbookViewId="0">
+      <selection activeCell="B1737" sqref="B1737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33514,6 +33547,363 @@
         <v>612</v>
       </c>
     </row>
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1716">
+        <v>604.12</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1717">
+        <v>-100</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1718">
+        <v>270</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1719">
+        <v>-28.77</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1720">
+        <v>-25.28</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1721">
+        <v>-6.08</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1722">
+        <v>613.71</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1723">
+        <v>-6.44</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1724">
+        <v>-37.64</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1725">
+        <v>149.75</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1726">
+        <v>-219.99</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1727">
+        <v>-129.99</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1728">
+        <v>-600</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1729">
+        <v>-56.66</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1730">
+        <v>-26.19</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1731">
+        <v>-111.55</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1732">
+        <v>-40.99</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1733">
+        <v>-28.33</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1734">
+        <v>-50</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1735">
+        <v>-40</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1736">
+        <v>-30</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>1281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9DD0B6-71E1-420B-9088-9043AC9FC95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E86A41-9453-4DC1-8585-E15F2BD8EB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6796" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="1284">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -3866,6 +3875,12 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>1/10/2022</t>
+  </si>
+  <si>
+    <t>1/11/2022</t>
   </si>
 </sst>
 </file>
@@ -4707,10 +4722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1736"/>
+  <dimension ref="A1:E1738"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1722" workbookViewId="0">
-      <selection activeCell="B1737" sqref="B1737"/>
+      <selection activeCell="E1733" sqref="E1733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33904,6 +33919,40 @@
         <v>1281</v>
       </c>
     </row>
+    <row r="1737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1737">
+        <v>-20</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1738">
+        <v>-10</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>1281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E86A41-9453-4DC1-8585-E15F2BD8EB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2181D19F-3BA8-4A94-93CD-A8D195C69D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6788" uniqueCount="1281">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -3869,15 +3869,6 @@
   </si>
   <si>
     <t>FPOS WINGO'S RESTAURANT  WOODS</t>
-  </si>
-  <si>
-    <t>1/9/2022</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>1/10/2022</t>
   </si>
   <si>
     <t>1/11/2022</t>
@@ -4722,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1738"/>
+  <dimension ref="A1:E1734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1722" workbookViewId="0">
-      <selection activeCell="E1733" sqref="E1733"/>
+    <sheetView tabSelected="1" topLeftCell="A1730" workbookViewId="0">
+      <selection activeCell="A1734" sqref="A1734:G1734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33873,84 +33864,16 @@
         <v>1280</v>
       </c>
       <c r="B1734">
-        <v>-50</v>
+        <v>-28.75</v>
       </c>
       <c r="C1734" t="s">
         <v>6</v>
       </c>
       <c r="D1734" t="s">
-        <v>1281</v>
+        <v>7</v>
       </c>
       <c r="E1734" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1735" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B1735">
-        <v>-40</v>
-      </c>
-      <c r="C1735" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1735" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E1735" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1736" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B1736">
-        <v>-30</v>
-      </c>
-      <c r="C1736" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1736" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E1736" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1737" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B1737">
-        <v>-20</v>
-      </c>
-      <c r="C1737" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1737" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E1737" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1738" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B1738">
-        <v>-10</v>
-      </c>
-      <c r="C1738" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1738" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E1738" t="s">
-        <v>1281</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2181D19F-3BA8-4A94-93CD-A8D195C69D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DDF7C-525D-4C75-AAF0-BF2466E40A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6788" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6792" uniqueCount="1282">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -3872,6 +3872,9 @@
   </si>
   <si>
     <t>1/11/2022</t>
+  </si>
+  <si>
+    <t>1/13/2022</t>
   </si>
 </sst>
 </file>
@@ -4713,10 +4716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1734"/>
+  <dimension ref="A1:E1735"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1730" workbookViewId="0">
-      <selection activeCell="A1734" sqref="A1734:G1734"/>
+      <selection activeCell="A1735" sqref="A1735:E1735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33876,6 +33879,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="1735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1735">
+        <v>641.54</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DDF7C-525D-4C75-AAF0-BF2466E40A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD6F36B-1AE1-481D-99EB-83DFF21046A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6792" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6808" uniqueCount="1286">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -3875,6 +3875,18 @@
   </si>
   <si>
     <t>1/13/2022</t>
+  </si>
+  <si>
+    <t>1/14/2022</t>
+  </si>
+  <si>
+    <t>FPOS A&amp;W #7223           WOODS</t>
+  </si>
+  <si>
+    <t>FPOS TIM HORTONS #1951   HARTL</t>
+  </si>
+  <si>
+    <t>1/16/2022</t>
   </si>
 </sst>
 </file>
@@ -4716,10 +4728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1735"/>
+  <dimension ref="A1:E1739"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1730" workbookViewId="0">
-      <selection activeCell="A1735" sqref="A1735:E1735"/>
+      <selection activeCell="A1740" sqref="A1740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33896,6 +33908,74 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1736">
+        <v>-59.22</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1737">
+        <v>-205.99</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1738">
+        <v>-28</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1739">
+        <v>-2.02</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>1284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD6F36B-1AE1-481D-99EB-83DFF21046A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C103FD3-176D-4929-A634-9E6B7895FD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6808" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="1288">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -3887,6 +3887,12 @@
   </si>
   <si>
     <t>1/16/2022</t>
+  </si>
+  <si>
+    <t>1/17/2022</t>
+  </si>
+  <si>
+    <t>OPOS AMZN Mktp US        Amzn.</t>
   </si>
 </sst>
 </file>
@@ -4728,10 +4734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1739"/>
+  <dimension ref="A1:E1740"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1730" workbookViewId="0">
-      <selection activeCell="A1740" sqref="A1740"/>
+    <sheetView tabSelected="1" topLeftCell="A1724" workbookViewId="0">
+      <selection activeCell="A1740" sqref="A1740:G1740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33976,6 +33982,23 @@
         <v>1284</v>
       </c>
     </row>
+    <row r="1740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1740">
+        <v>-68.84</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>1287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C103FD3-176D-4929-A634-9E6B7895FD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4643D5A3-0D1D-45DE-B642-98F5B14DF07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6812" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="1291">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -3893,6 +3893,15 @@
   </si>
   <si>
     <t>OPOS AMZN Mktp US        Amzn.</t>
+  </si>
+  <si>
+    <t>1/27/2022</t>
+  </si>
+  <si>
+    <t>1/25/2022</t>
+  </si>
+  <si>
+    <t>1/24/2022</t>
   </si>
 </sst>
 </file>
@@ -4734,10 +4743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1740"/>
+  <dimension ref="A1:E1747"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1724" workbookViewId="0">
-      <selection activeCell="A1740" sqref="A1740:G1740"/>
+      <selection activeCell="E1737" sqref="E1737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33999,6 +34008,125 @@
         <v>1287</v>
       </c>
     </row>
+    <row r="1741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1741">
+        <v>115</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1742">
+        <v>685.04</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1743">
+        <v>-16.5</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1744">
+        <v>10</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1745">
+        <v>10</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1746">
+        <v>-86.2</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1747">
+        <v>-6.89</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F07E7D-D269-49AE-A3E5-59F0756CEF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4219954-2504-4B70-A90F-2B0D26362711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="488">
   <si>
     <t>-</t>
   </si>
@@ -1490,6 +1490,9 @@
   </si>
   <si>
     <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>FPOS CARLETON CO-OP COUNTFLORE</t>
   </si>
 </sst>
 </file>
@@ -2332,18 +2335,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1941"/>
+  <dimension ref="A1:F1943"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A1918" workbookViewId="0">
+      <selection activeCell="F1940" sqref="F1940"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -39552,6 +39557,46 @@
         <v>29</v>
       </c>
     </row>
+    <row r="1942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1942" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B1942">
+        <v>-25.8</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1942" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1942">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1943" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B1943">
+        <v>-60.93</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1943" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1943">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4219954-2504-4B70-A90F-2B0D26362711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFB7E84-6430-474C-8D8D-162C7CA0D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5689" uniqueCount="488">
   <si>
     <t>-</t>
   </si>
@@ -2335,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1943"/>
+  <dimension ref="A1:F1945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1918" workbookViewId="0">
-      <selection activeCell="F1940" sqref="F1940"/>
+    <sheetView tabSelected="1" topLeftCell="A1936" workbookViewId="0">
+      <selection activeCell="F1946" sqref="F1946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39597,6 +39597,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1944" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B1944">
+        <v>1276.24</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1944" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1944">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1945" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B1945">
+        <v>-137.99</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1945" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1945">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFB7E84-6430-474C-8D8D-162C7CA0D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A054F0-5C30-41C3-AD97-6F7C442DC8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5689" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5713" uniqueCount="490">
   <si>
     <t>-</t>
   </si>
@@ -1493,12 +1493,21 @@
   </si>
   <si>
     <t>FPOS CARLETON CO-OP COUNTFLORE</t>
+  </si>
+  <si>
+    <t>OPOS 128.97 FRG*NBASTORE.JACKS</t>
+  </si>
+  <si>
+    <t>OPOS 128.97 FRG*NBASTORE.86674</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1976,10 +1985,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2335,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1945"/>
+  <dimension ref="A1:F1953"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1936" workbookViewId="0">
-      <selection activeCell="F1946" sqref="F1946"/>
+    <sheetView tabSelected="1" topLeftCell="A1939" workbookViewId="0">
+      <selection activeCell="D1953" sqref="D1953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39637,6 +39647,142 @@
         <v>25</v>
       </c>
     </row>
+    <row r="1946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1946" s="3">
+        <v>44609</v>
+      </c>
+      <c r="B1946">
+        <v>-38.99</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1946" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1947" s="3">
+        <v>44608</v>
+      </c>
+      <c r="B1947">
+        <v>-171.73</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1947" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1948" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B1948">
+        <v>159.27000000000001</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1948" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1949" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B1949">
+        <v>-29.99</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1949" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1950" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B1950">
+        <v>-33.340000000000003</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1950" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1951" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B1951">
+        <v>-94.11</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1951" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1952" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B1952">
+        <v>-168.29</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1952" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1953" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B1953">
+        <v>-65.819999999999993</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1953" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A054F0-5C30-41C3-AD97-6F7C442DC8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71984020-5ACA-4A9B-9092-1DCAD4FB5902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5713" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5722" uniqueCount="490">
   <si>
     <t>-</t>
   </si>
@@ -2345,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1953"/>
+  <dimension ref="A1:F1956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1939" workbookViewId="0">
-      <selection activeCell="D1953" sqref="D1953"/>
+      <selection activeCell="A1957" sqref="A1957:XFD1957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39783,6 +39783,57 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1954" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1954" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B1954">
+        <v>1276.24</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1954" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1955" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B1955">
+        <v>-139.99</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1955" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1956" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B1956">
+        <v>-200</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1956" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71984020-5ACA-4A9B-9092-1DCAD4FB5902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BBE546-E089-4F8E-89F4-CD434521B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5722" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="491">
   <si>
     <t>-</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>OPOS 128.97 FRG*NBASTORE.86674</t>
+  </si>
+  <si>
+    <t>OPOS NEWEGG CANADA INC   RICHM</t>
   </si>
 </sst>
 </file>
@@ -2345,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1956"/>
+  <dimension ref="A1:F1959"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1939" workbookViewId="0">
-      <selection activeCell="A1957" sqref="A1957:XFD1957"/>
+      <selection activeCell="A1960" sqref="A1960:XFD1960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39834,6 +39837,57 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1957" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B1957">
+        <v>-16.989999999999998</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1957" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1958" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B1958">
+        <v>-600</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1958" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1959" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B1959">
+        <v>-62.7</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BBE546-E089-4F8E-89F4-CD434521B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D5338D-3F97-4E7B-838E-22BAB38B8B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="491">
   <si>
     <t>-</t>
   </si>
@@ -2348,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1959"/>
+  <dimension ref="A1:F1960"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1939" workbookViewId="0">
-      <selection activeCell="A1960" sqref="A1960:XFD1960"/>
+      <selection activeCell="A1960" sqref="A1960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39888,6 +39888,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="1960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1960" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B1960">
+        <v>-100</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D5338D-3F97-4E7B-838E-22BAB38B8B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF6A8D6-2C2A-46A7-9344-3B999ABEC7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5755" uniqueCount="496">
   <si>
     <t>-</t>
   </si>
@@ -1502,6 +1502,21 @@
   </si>
   <si>
     <t>OPOS NEWEGG CANADA INC   RICHM</t>
+  </si>
+  <si>
+    <t>OPOS Starlink Internet   Halifax      CA</t>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+  </si>
+  <si>
+    <t>FPOS SMITH DRUGS         FLORENCEVILNBCA</t>
+  </si>
+  <si>
+    <t>FPOS TIM HORTONS #2853   BRISTOL    NBCD</t>
+  </si>
+  <si>
+    <t>FPOS ULTRAMAR #12659     BATH      NBCA</t>
   </si>
 </sst>
 </file>
@@ -2348,10 +2363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1960"/>
+  <dimension ref="A1:F1967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1939" workbookViewId="0">
-      <selection activeCell="A1960" sqref="A1960"/>
+    <sheetView tabSelected="1" topLeftCell="A1936" workbookViewId="0">
+      <selection activeCell="A1968" sqref="A1968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39905,6 +39920,125 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1961" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B1961">
+        <v>-100.75</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1962" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B1962">
+        <v>-692.1</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1963" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B1963">
+        <v>190</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1964" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B1964">
+        <v>-27.73</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1965" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B1965">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1966" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B1966">
+        <v>1276.24</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1967" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B1967">
+        <v>-38.270000000000003</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF6A8D6-2C2A-46A7-9344-3B999ABEC7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B0337-ED55-4995-9BF9-61A0FD85400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5755" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="496">
   <si>
     <t>-</t>
   </si>
@@ -2363,10 +2363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1967"/>
+  <dimension ref="A1:F1970"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1936" workbookViewId="0">
-      <selection activeCell="A1968" sqref="A1968"/>
+      <selection activeCell="B1968" sqref="B1968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40039,6 +40039,57 @@
         <v>495</v>
       </c>
     </row>
+    <row r="1968" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1968" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B1968">
+        <v>-150</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1969" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B1969">
+        <v>-18.39</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1970" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B1970">
+        <v>-120.74</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B0337-ED55-4995-9BF9-61A0FD85400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD4E189-002E-4BA8-B3D9-4F790EC61E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5800" uniqueCount="496">
   <si>
     <t>-</t>
   </si>
@@ -2363,10 +2363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1970"/>
+  <dimension ref="A1:F1982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1936" workbookViewId="0">
-      <selection activeCell="B1968" sqref="B1968"/>
+    <sheetView tabSelected="1" topLeftCell="A1966" workbookViewId="0">
+      <selection activeCell="A1983" sqref="A1983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40090,6 +40090,210 @@
         <v>490</v>
       </c>
     </row>
+    <row r="1971" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1971" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B1971">
+        <v>-69.569999999999993</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1972" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B1972">
+        <v>-129.99</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1973" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B1973">
+        <v>-200</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1974" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B1974">
+        <v>-148.35</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1975" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B1975">
+        <v>-600</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1976" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B1976">
+        <v>-43.62</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1977" s="3">
+        <v>44650</v>
+      </c>
+      <c r="B1977">
+        <v>-123.05</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1978" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B1978">
+        <v>1276.24</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1979" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B1979">
+        <v>-10.35</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1980" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B1980">
+        <v>-17.62</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1981" s="3">
+        <v>44638</v>
+      </c>
+      <c r="B1981">
+        <v>-70.77</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1982" s="3">
+        <v>44638</v>
+      </c>
+      <c r="B1982">
+        <v>-28.98</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD4E189-002E-4BA8-B3D9-4F790EC61E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E9B87-E5CC-442F-8F24-DC1FB25B2F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5800" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="497">
   <si>
     <t>-</t>
   </si>
@@ -1517,6 +1517,9 @@
   </si>
   <si>
     <t>FPOS ULTRAMAR #12659     BATH      NBCA</t>
+  </si>
+  <si>
+    <t>OPOS 24.99 WNBA LIVEACCESPLAIN</t>
   </si>
 </sst>
 </file>
@@ -2363,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1982"/>
+  <dimension ref="A1:F1995"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1966" workbookViewId="0">
-      <selection activeCell="A1983" sqref="A1983"/>
+      <selection activeCell="A1994" sqref="A1994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40294,6 +40297,227 @@
         <v>391</v>
       </c>
     </row>
+    <row r="1983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1983" s="2">
+        <v>44667</v>
+      </c>
+      <c r="B1983">
+        <v>-32.39</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1984" s="2">
+        <v>44665</v>
+      </c>
+      <c r="B1984">
+        <v>-8.61</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1985" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B1985">
+        <v>-28.29</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1986" s="2">
+        <v>44662</v>
+      </c>
+      <c r="B1986">
+        <v>40</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1987" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B1987">
+        <v>-60.94</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1988" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B1988">
+        <v>1276.24</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1989" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B1989">
+        <v>-22.06</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1989" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1990" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B1990">
+        <v>-33.340000000000003</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1990" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1991" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B1991">
+        <v>-29.95</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1991" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1992" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B1992">
+        <v>-36.79</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1992" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1993" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B1993">
+        <v>-24.99</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1993" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1994" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B1994">
+        <v>-34</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1994" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1995" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B1995">
+        <v>149.75</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1995" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E9B87-E5CC-442F-8F24-DC1FB25B2F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F7A1F-F140-4898-B36B-E3A16012CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21270" yWindow="780" windowWidth="11820" windowHeight="18135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="498">
   <si>
     <t>-</t>
   </si>
@@ -1520,6 +1520,9 @@
   </si>
   <si>
     <t>OPOS 24.99 WNBA LIVEACCESPLAIN</t>
+  </si>
+  <si>
+    <t>A.C. SHARKEY'S PUB &amp; GRILFLORE</t>
   </si>
 </sst>
 </file>
@@ -2366,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1995"/>
+  <dimension ref="A1:F1998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1966" workbookViewId="0">
-      <selection activeCell="A1994" sqref="A1994"/>
+      <selection activeCell="B1998" sqref="B1998:G1998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40518,6 +40521,57 @@
         <v>94</v>
       </c>
     </row>
+    <row r="1996" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1996" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B1996">
+        <v>-53.54</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1996" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1997" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B1997">
+        <v>-75.819999999999993</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1997" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1998" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B1998">
+        <v>1276.24</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1998" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F7A1F-F140-4898-B36B-E3A16012CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EBAA6-5B79-4B0E-AE89-F65054F43B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21270" yWindow="780" windowWidth="11820" windowHeight="18135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5890" uniqueCount="502">
   <si>
     <t>-</t>
   </si>
@@ -1523,6 +1523,18 @@
   </si>
   <si>
     <t>A.C. SHARKEY'S PUB &amp; GRILFLORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER ADJUSTMENT              </t>
+  </si>
+  <si>
+    <t>BK #09448                WATER</t>
+  </si>
+  <si>
+    <t>CIRCLE K / IRVING #QPS   WAASI</t>
+  </si>
+  <si>
+    <t>FPOS MCDONALD'S #1558    MONCT</t>
   </si>
 </sst>
 </file>
@@ -2369,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1998"/>
+  <dimension ref="A1:F2012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1966" workbookViewId="0">
-      <selection activeCell="B1998" sqref="B1998:G1998"/>
+    <sheetView tabSelected="1" topLeftCell="A1972" workbookViewId="0">
+      <selection activeCell="B1992" sqref="B1992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40572,6 +40584,244 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1999" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1999" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B1999">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2000" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B2000">
+        <v>-75.819999999999993</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2000" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2001" s="2">
+        <v>44676</v>
+      </c>
+      <c r="B2001">
+        <v>-200</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2001" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2002" s="2">
+        <v>44683</v>
+      </c>
+      <c r="B2002">
+        <v>-600</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2002" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2003" s="2">
+        <v>44683</v>
+      </c>
+      <c r="B2003">
+        <v>-33.96</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2003" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2004" s="2">
+        <v>44683</v>
+      </c>
+      <c r="B2004">
+        <v>-13.59</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2004" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2005" s="2">
+        <v>44683</v>
+      </c>
+      <c r="B2005">
+        <v>-148.35</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2005" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2006" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B2006">
+        <v>-72.19</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2006" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2007" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B2007">
+        <v>-10.34</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2007" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2008" s="2">
+        <v>44685</v>
+      </c>
+      <c r="B2008">
+        <v>-11.95</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2008" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2009" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B2009">
+        <v>1276.24</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2009" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2010" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B2010">
+        <v>-6.42</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2010" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2011" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B2011">
+        <v>-75.989999999999995</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2011" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2012" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B2012">
+        <v>-2.13</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2012" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EBAA6-5B79-4B0E-AE89-F65054F43B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B86295A-79D7-425B-8561-34FE81095BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5890" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5941" uniqueCount="506">
   <si>
     <t>-</t>
   </si>
@@ -1535,6 +1535,18 @@
   </si>
   <si>
     <t>FPOS MCDONALD'S #1558    MONCT</t>
+  </si>
+  <si>
+    <t>CINEPLEX #6109           MONCT</t>
+  </si>
+  <si>
+    <t>CIRCLE K / IRVING #201   SALIS</t>
+  </si>
+  <si>
+    <t>TIM HORTONS #2848        FREDE</t>
+  </si>
+  <si>
+    <t>FPOS SMITH DRUGS LTD.    FLORE</t>
   </si>
 </sst>
 </file>
@@ -2381,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2012"/>
+  <dimension ref="A1:F2029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1972" workbookViewId="0">
-      <selection activeCell="B1992" sqref="B1992"/>
+    <sheetView tabSelected="1" topLeftCell="A1984" workbookViewId="0">
+      <selection activeCell="E1999" sqref="E1999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40822,6 +40834,295 @@
         <v>501</v>
       </c>
     </row>
+    <row r="2013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2013" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B2013">
+        <v>-15.61</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2013" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2014" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B2014">
+        <v>-86</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2014" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2015" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B2015">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2015" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2016" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B2016">
+        <v>86</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2016" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2017" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B2017">
+        <v>-79.98</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2017" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2018" s="2">
+        <v>44697</v>
+      </c>
+      <c r="B2018">
+        <v>-27.59</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2018" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2019" s="2">
+        <v>44697</v>
+      </c>
+      <c r="B2019">
+        <v>-12.17</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2019" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2020" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B2020">
+        <v>-179.96</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2020" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2021" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B2021">
+        <v>-159.99</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2021" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2022" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B2022">
+        <v>-43.69</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2022" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2023" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B2023">
+        <v>1276.24</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2023" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2024" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B2024">
+        <v>-10</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2024" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2025" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B2025">
+        <v>-7.23</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2025" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2026" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B2026">
+        <v>-26.85</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2026" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2027" s="2">
+        <v>44707</v>
+      </c>
+      <c r="B2027">
+        <v>100</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2027" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2028" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B2028">
+        <v>-87.51</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2028" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2029" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B2029">
+        <v>5986.02</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2029" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B86295A-79D7-425B-8561-34FE81095BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267F3F7-5DA0-47BA-AE91-6F2C677E2A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5941" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="513">
   <si>
     <t>-</t>
   </si>
@@ -1547,6 +1547,27 @@
   </si>
   <si>
     <t>FPOS SMITH DRUGS LTD.    FLORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRD. Card Bill Payment </t>
+  </si>
+  <si>
+    <t>CBSA/ASFC PORT OF WOOD   BELLE</t>
+  </si>
+  <si>
+    <t>CNB #021                 WOODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULTRAMAR #12659          BATH </t>
+  </si>
+  <si>
+    <t>TIM HORTONS #0931        ELMSD</t>
+  </si>
+  <si>
+    <t>GCDS625 BRISTOL          BRIST</t>
+  </si>
+  <si>
+    <t>OPOS AMZ*Terramar Sports WWW.A</t>
   </si>
 </sst>
 </file>
@@ -2393,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2029"/>
+  <dimension ref="A1:F2075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1984" workbookViewId="0">
-      <selection activeCell="E1999" sqref="E1999"/>
+    <sheetView tabSelected="1" topLeftCell="A2015" workbookViewId="0">
+      <selection activeCell="A2076" sqref="A2076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41123,6 +41144,782 @@
         <v>94</v>
       </c>
     </row>
+    <row r="2030" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2030" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B2030">
+        <v>-600</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2030" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2031" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B2031">
+        <v>-161</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2031" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2032" s="3">
+        <v>44714</v>
+      </c>
+      <c r="B2032">
+        <v>1276.24</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2032" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2033" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B2033">
+        <v>-4.91</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2033" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2034" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B2034">
+        <v>-113.85</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2034" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2035" s="3">
+        <v>44720</v>
+      </c>
+      <c r="B2035">
+        <v>-33.090000000000003</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2036" s="3">
+        <v>44720</v>
+      </c>
+      <c r="B2036">
+        <v>944.15</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2036" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2037" s="3">
+        <v>44721</v>
+      </c>
+      <c r="B2037">
+        <v>-24.14</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2037" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2038" s="3">
+        <v>44722</v>
+      </c>
+      <c r="B2038">
+        <v>-47.14</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2038" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2039" s="3">
+        <v>44722</v>
+      </c>
+      <c r="B2039">
+        <v>-29.89</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2039" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2040" s="3">
+        <v>44722</v>
+      </c>
+      <c r="B2040">
+        <v>-68.98</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2040" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2041" s="3">
+        <v>44722</v>
+      </c>
+      <c r="B2041">
+        <v>-72.260000000000005</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2041" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2042" s="3">
+        <v>44722</v>
+      </c>
+      <c r="B2042">
+        <v>-24.14</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2042" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2043" s="3">
+        <v>44725</v>
+      </c>
+      <c r="B2043">
+        <v>-39.03</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2043" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2044" s="3">
+        <v>44728</v>
+      </c>
+      <c r="B2044">
+        <v>1276.24</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2044" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2045" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B2045">
+        <v>-179.96</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2045" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2046" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B2046">
+        <v>-150.04</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2046" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2047" s="3">
+        <v>44732</v>
+      </c>
+      <c r="B2047">
+        <v>-35.64</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2047" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2048" s="3">
+        <v>44732</v>
+      </c>
+      <c r="B2048">
+        <v>35.65</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2048" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2049" s="3">
+        <v>44733</v>
+      </c>
+      <c r="B2049">
+        <v>-8.0399999999999991</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2049" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2050" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B2050">
+        <v>-7.45</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2050" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2051" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B2051">
+        <v>-27.99</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2051" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2052" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B2052">
+        <v>-22.86</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2052" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2053" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B2053">
+        <v>-21.39</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2053" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2054" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B2054">
+        <v>-16.52</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2054" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2055" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B2055">
+        <v>-90</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2055" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2056" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B2056">
+        <v>-28.49</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2056" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2057" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B2057">
+        <v>-46.68</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2057" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2058" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B2058">
+        <v>-45.99</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2058" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2059" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B2059">
+        <v>-101.93</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2059" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2060" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B2060">
+        <v>-9.19</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2060" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2061" s="3">
+        <v>44737</v>
+      </c>
+      <c r="B2061">
+        <v>-22.99</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2061" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2062" s="3">
+        <v>44737</v>
+      </c>
+      <c r="B2062">
+        <v>-42.54</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2062" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2063" s="3">
+        <v>44737</v>
+      </c>
+      <c r="B2063">
+        <v>-35.06</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2063" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2064" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B2064">
+        <v>-4.13</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2064" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2065" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B2065">
+        <v>-39.1</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2065" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2066" s="3">
+        <v>44741</v>
+      </c>
+      <c r="B2066">
+        <v>-23.68</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2066" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2067" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B2067">
+        <v>1276.24</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2067" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2068" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B2068">
+        <v>-8.81</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2068" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2069" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B2069">
+        <v>-600</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2069" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2070" s="3">
+        <v>44744</v>
+      </c>
+      <c r="B2070">
+        <v>-161</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2070" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2071" s="3">
+        <v>44746</v>
+      </c>
+      <c r="B2071">
+        <v>101.93</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2071" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2072" s="3">
+        <v>44747</v>
+      </c>
+      <c r="B2072">
+        <v>299.04000000000002</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2072" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2073" s="3">
+        <v>44747</v>
+      </c>
+      <c r="B2073">
+        <v>101.93</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2073" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2074" s="3">
+        <v>44747</v>
+      </c>
+      <c r="B2074">
+        <v>-101.93</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2074" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2075" s="3">
+        <v>44750</v>
+      </c>
+      <c r="B2075">
+        <v>-696.13</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267F3F7-5DA0-47BA-AE91-6F2C677E2A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE3FC01-8AA1-415F-B264-3A95A8626BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6128" uniqueCount="514">
   <si>
     <t>-</t>
   </si>
@@ -1568,6 +1568,9 @@
   </si>
   <si>
     <t>OPOS AMZ*Terramar Sports WWW.A</t>
+  </si>
+  <si>
+    <t>DR LILLIAN C LINTON PROF FLORE</t>
   </si>
 </sst>
 </file>
@@ -2414,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2075"/>
+  <dimension ref="A1:F2092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2015" workbookViewId="0">
-      <selection activeCell="A2076" sqref="A2076"/>
+    <sheetView tabSelected="1" topLeftCell="A2033" workbookViewId="0">
+      <selection activeCell="E2089" sqref="E2089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41920,6 +41923,295 @@
         <v>506</v>
       </c>
     </row>
+    <row r="2076" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2076" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B2076">
+        <v>-25.52</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2076" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2077" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B2077">
+        <v>-52.29</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2077" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2078" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B2078">
+        <v>-30</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2078" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2079" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B2079">
+        <v>-158.79</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2079" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2080" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B2080">
+        <v>-178.18</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2080" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2081" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B2081">
+        <v>-54.03</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2081" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2082" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B2082">
+        <v>-19.54</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2082" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2083" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B2083">
+        <v>-25.75</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2083" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2084" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B2084">
+        <v>-34.4</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2084" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2085" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B2085">
+        <v>1282.53</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2085" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2086" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B2086">
+        <v>-184.77</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2086" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2087" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B2087">
+        <v>-132.96</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2087" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2088" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B2088">
+        <v>-22.99</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2088" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2089" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B2089">
+        <v>-34.44</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2090" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B2090">
+        <v>-199.99</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2090" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2091" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B2091">
+        <v>-159.99</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2091" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2092" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B2092">
+        <v>1282.53</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE3FC01-8AA1-415F-B264-3A95A8626BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44FAE25-9FEB-4711-92EF-2EB60D19ACA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6128" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6187" uniqueCount="514">
   <si>
     <t>-</t>
   </si>
@@ -2417,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2092"/>
+  <dimension ref="A1:F2112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2033" workbookViewId="0">
-      <selection activeCell="E2089" sqref="E2089"/>
+    <sheetView tabSelected="1" topLeftCell="A2084" workbookViewId="0">
+      <selection activeCell="F2092" sqref="F2092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42212,6 +42212,343 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2093" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2093" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B2093">
+        <v>-600</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2093" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2094" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B2094">
+        <v>-161</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2095" s="3">
+        <v>44778</v>
+      </c>
+      <c r="B2095">
+        <v>-41.47</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2096" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B2096">
+        <v>-149.5</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2097" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B2097">
+        <v>-24.14</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2098" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B2098">
+        <v>-13.51</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2099" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B2099">
+        <v>-656.75</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2100" s="3">
+        <v>44784</v>
+      </c>
+      <c r="B2100">
+        <v>-121.4</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2101" s="3">
+        <v>44784</v>
+      </c>
+      <c r="B2101">
+        <v>-29.9</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2102" s="3">
+        <v>44784</v>
+      </c>
+      <c r="B2102">
+        <v>1282.53</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2103" s="3">
+        <v>44785</v>
+      </c>
+      <c r="B2103">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2104" s="3">
+        <v>44792</v>
+      </c>
+      <c r="B2104">
+        <v>-27.62</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2104" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2105" s="3">
+        <v>44792</v>
+      </c>
+      <c r="B2105">
+        <v>-57.49</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2106" s="3">
+        <v>44792</v>
+      </c>
+      <c r="B2106">
+        <v>-10.65</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2107" s="3">
+        <v>44795</v>
+      </c>
+      <c r="B2107">
+        <v>-71.34</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2108" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B2108">
+        <v>1282.53</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2109" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B2109">
+        <v>-39.270000000000003</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2110" s="3">
+        <v>44799</v>
+      </c>
+      <c r="B2110">
+        <v>-87.03</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2111" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B2111">
+        <v>-180.05</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2112" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B2112">
+        <v>-159.99</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44FAE25-9FEB-4711-92EF-2EB60D19ACA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D6524-E7D3-4296-82C7-71D2D47E4B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6187" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6206" uniqueCount="514">
   <si>
     <t>-</t>
   </si>
@@ -2417,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2112"/>
+  <dimension ref="A1:F2119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2084" workbookViewId="0">
-      <selection activeCell="F2092" sqref="F2092"/>
+      <selection activeCell="A2120" sqref="A2120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42549,6 +42549,119 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2113" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B2113">
+        <v>-63.52</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2114" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B2114">
+        <v>-600</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2115" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B2115">
+        <v>-400</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2116" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B2116">
+        <v>-400</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2117" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B2117">
+        <v>-183.99</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2118" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B2118">
+        <v>-161</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2119" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B2119">
+        <v>-97.7</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D6524-E7D3-4296-82C7-71D2D47E4B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44247E4-6F84-492B-8F2B-AEB71971CD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-11220" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6206" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6266" uniqueCount="517">
   <si>
     <t>-</t>
   </si>
@@ -1571,6 +1571,15 @@
   </si>
   <si>
     <t>DR LILLIAN C LINTON PROF FLORE</t>
+  </si>
+  <si>
+    <t>OPOS GASPARD             WINNI</t>
+  </si>
+  <si>
+    <t>CENTREVILLE VALU FOODS   CENTR</t>
+  </si>
+  <si>
+    <t>MCDONALD'S #17867        WOODS</t>
   </si>
 </sst>
 </file>
@@ -2417,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2119"/>
+  <dimension ref="A1:F2140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2084" workbookViewId="0">
-      <selection activeCell="A2120" sqref="A2120"/>
+    <sheetView tabSelected="1" topLeftCell="A2042" workbookViewId="0">
+      <selection activeCell="C2120" sqref="C2120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42662,6 +42671,354 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2120" s="3">
+        <v>44811</v>
+      </c>
+      <c r="B2120">
+        <v>-35.18</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2121" s="3">
+        <v>44811</v>
+      </c>
+      <c r="B2121">
+        <v>-1535.99</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2122" s="3">
+        <v>44812</v>
+      </c>
+      <c r="B2122">
+        <v>-35.159999999999997</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2123" s="3">
+        <v>44812</v>
+      </c>
+      <c r="B2123">
+        <v>1282.53</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2124" s="3">
+        <v>44816</v>
+      </c>
+      <c r="B2124">
+        <v>-57.5</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2125" s="3">
+        <v>44819</v>
+      </c>
+      <c r="B2125">
+        <v>-20.46</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2126" s="3">
+        <v>44820</v>
+      </c>
+      <c r="B2126">
+        <v>-11.5</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2127" s="3">
+        <v>44820</v>
+      </c>
+      <c r="B2127">
+        <v>-73.27</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2128" s="3">
+        <v>44823</v>
+      </c>
+      <c r="B2128">
+        <v>-40.46</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2129" s="3">
+        <v>44823</v>
+      </c>
+      <c r="B2129">
+        <v>-5.98</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2130" s="3">
+        <v>44824</v>
+      </c>
+      <c r="B2130">
+        <v>-72.22</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2131" s="3">
+        <v>44824</v>
+      </c>
+      <c r="B2131">
+        <v>-77.260000000000005</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2132" s="3">
+        <v>44824</v>
+      </c>
+      <c r="B2132">
+        <v>-48.91</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2133" s="3">
+        <v>44826</v>
+      </c>
+      <c r="B2133">
+        <v>1282.53</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2134" s="3">
+        <v>44827</v>
+      </c>
+      <c r="B2134">
+        <v>-400</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2135" s="3">
+        <v>44830</v>
+      </c>
+      <c r="B2135">
+        <v>-98.86</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2136" s="3">
+        <v>44830</v>
+      </c>
+      <c r="B2136">
+        <v>-32.25</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2137" s="3">
+        <v>44831</v>
+      </c>
+      <c r="B2137">
+        <v>-28.75</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2138" s="3">
+        <v>44832</v>
+      </c>
+      <c r="B2138">
+        <v>-82.16</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2139" s="3">
+        <v>44832</v>
+      </c>
+      <c r="B2139">
+        <v>7.78</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2140" s="3">
+        <v>44833</v>
+      </c>
+      <c r="B2140">
+        <v>-400</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44247E4-6F84-492B-8F2B-AEB71971CD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA04D03-85F4-4BC4-9424-A0C2BAD40B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-11220" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6266" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="519">
   <si>
     <t>-</t>
   </si>
@@ -1580,6 +1580,12 @@
   </si>
   <si>
     <t>MCDONALD'S #17867        WOODS</t>
+  </si>
+  <si>
+    <t>OPOS TICKETMASTER CANADA 41634</t>
+  </si>
+  <si>
+    <t>A&amp;W #7223                WOODS</t>
   </si>
 </sst>
 </file>
@@ -2426,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2140"/>
+  <dimension ref="A1:F2170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2042" workbookViewId="0">
-      <selection activeCell="C2120" sqref="C2120"/>
+    <sheetView tabSelected="1" topLeftCell="A2129" workbookViewId="0">
+      <selection activeCell="A2141" sqref="A2141:E2170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43019,6 +43025,513 @@
         <v>46</v>
       </c>
     </row>
+    <row r="2141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2141" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B2141">
+        <v>-8.61</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2142" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B2142">
+        <v>-600</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2143" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B2143">
+        <v>-200</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2144" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B2144">
+        <v>-160</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2145" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B2145">
+        <v>-161</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2146" s="2">
+        <v>44839</v>
+      </c>
+      <c r="B2146">
+        <v>108.6</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2147" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B2147">
+        <v>1282.53</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2148" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B2148">
+        <v>-9.41</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2149" s="2">
+        <v>44842</v>
+      </c>
+      <c r="B2149">
+        <v>-682.6</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2150" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B2150">
+        <v>-548.4</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2151" s="2">
+        <v>44852</v>
+      </c>
+      <c r="B2151">
+        <v>350</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2152" s="2">
+        <v>44854</v>
+      </c>
+      <c r="B2152">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2153" s="2">
+        <v>44854</v>
+      </c>
+      <c r="B2153">
+        <v>1282.53</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2154" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B2154">
+        <v>-170</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2155" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B2155">
+        <v>-180</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2156" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B2156">
+        <v>-14.64</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2157" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B2157">
+        <v>-5.87</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2158" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B2158">
+        <v>-17.22</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2159" s="2">
+        <v>44858</v>
+      </c>
+      <c r="B2159">
+        <v>-32.22</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2160" s="2">
+        <v>44858</v>
+      </c>
+      <c r="B2160">
+        <v>-45.94</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2161" s="2">
+        <v>44858</v>
+      </c>
+      <c r="B2161">
+        <v>-108.07</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2162" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B2162">
+        <v>-117.95</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2163" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B2163">
+        <v>-73.59</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2164" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B2164">
+        <v>-600</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2165" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B2165">
+        <v>-25</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2166" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B2166">
+        <v>-8.0399999999999991</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2167" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B2167">
+        <v>-161</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2168" s="2">
+        <v>44867</v>
+      </c>
+      <c r="B2168">
+        <v>-15.24</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2169" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B2169">
+        <v>1282.53</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2170" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B2170">
+        <v>217.2</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA04D03-85F4-4BC4-9424-A0C2BAD40B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F2EF9B-13A1-4C40-A7B7-71933462D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,20 +16,11 @@
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6521" uniqueCount="525">
   <si>
     <t>-</t>
   </si>
@@ -1586,6 +1577,24 @@
   </si>
   <si>
     <t>A&amp;W #7223                WOODS</t>
+  </si>
+  <si>
+    <t>CENTREVILLE EQUIPMENT LTDCENTR</t>
+  </si>
+  <si>
+    <t>PIZZA TWICE              FLORE</t>
+  </si>
+  <si>
+    <t>CIRCLE K / IRVING #QPS   SALIS</t>
+  </si>
+  <si>
+    <t>CANADIAN TIRE #337       FREDE</t>
+  </si>
+  <si>
+    <t>WENDY'S 6742             DIEPP</t>
+  </si>
+  <si>
+    <t>OPOS SP HOCKEY NEW BRUNSW+1506</t>
   </si>
 </sst>
 </file>
@@ -2432,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2170"/>
+  <dimension ref="A1:F2226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2129" workbookViewId="0">
-      <selection activeCell="A2141" sqref="A2141:E2170"/>
+    <sheetView tabSelected="1" topLeftCell="A2165" workbookViewId="0">
+      <selection activeCell="A2226" sqref="A2226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43532,6 +43541,952 @@
         <v>94</v>
       </c>
     </row>
+    <row r="2171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2171" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B2171">
+        <v>-9.07</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2172" s="2">
+        <v>44875</v>
+      </c>
+      <c r="B2172">
+        <v>-1688.05</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2173" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B2173">
+        <v>-29.89</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2174" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B2174">
+        <v>2.68</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2175" s="2">
+        <v>44881</v>
+      </c>
+      <c r="B2175">
+        <v>-13.79</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2176" s="2">
+        <v>44882</v>
+      </c>
+      <c r="B2176">
+        <v>1281.82</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2177" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B2177">
+        <v>-4.57</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2178" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B2178">
+        <v>-28.74</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2179" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B2179">
+        <v>-22.92</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2180" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B2180">
+        <v>-13.79</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2181" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B2181">
+        <v>-80.489999999999995</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2182" s="2">
+        <v>44888</v>
+      </c>
+      <c r="B2182">
+        <v>-17.59</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2183" s="2">
+        <v>44889</v>
+      </c>
+      <c r="B2183">
+        <v>-341.26</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2184" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B2184">
+        <v>-25.36</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2185" s="2">
+        <v>44893</v>
+      </c>
+      <c r="B2185">
+        <v>-204.52</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2186" s="2">
+        <v>44894</v>
+      </c>
+      <c r="B2186">
+        <v>-175</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2186" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2187" s="2">
+        <v>44894</v>
+      </c>
+      <c r="B2187">
+        <v>-200</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2188" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B2188">
+        <v>-600</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2189" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B2189">
+        <v>-45.99</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2190" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B2190">
+        <v>1281.82</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2191" s="2">
+        <v>44897</v>
+      </c>
+      <c r="B2191">
+        <v>-161</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2191" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2192" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B2192">
+        <v>20.68</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2192" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2193" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B2193">
+        <v>-20.68</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2193" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2194" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B2194">
+        <v>-29.14</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2194" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2195" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B2195">
+        <v>1650.23</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2195" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2196" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B2196">
+        <v>-25.99</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2197" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B2197">
+        <v>-89.69</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2198" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B2198">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2198" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2199" s="2">
+        <v>44904</v>
+      </c>
+      <c r="B2199">
+        <v>-1326.09</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2200" s="2">
+        <v>44907</v>
+      </c>
+      <c r="B2200">
+        <v>150</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2201" s="2">
+        <v>44909</v>
+      </c>
+      <c r="B2201">
+        <v>-36.86</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2201" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2202" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B2202">
+        <v>-18.36</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2202" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2203" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B2203">
+        <v>1281.82</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2204" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B2204">
+        <v>-230</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2204" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2205" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B2205">
+        <v>-33.35</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2205" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2206" s="2">
+        <v>44919</v>
+      </c>
+      <c r="B2206">
+        <v>-8.0399999999999991</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2207" s="2">
+        <v>44919</v>
+      </c>
+      <c r="B2207">
+        <v>-82.78</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2208" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B2208">
+        <v>222.47</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2209" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B2209">
+        <v>1281.82</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2210" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B2210">
+        <v>-63.36</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2210" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2211" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B2211">
+        <v>-98.31</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2211" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2212" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2212">
+        <v>-600</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2212" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2213" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2213">
+        <v>-3.08</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2213" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2214" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2214">
+        <v>240</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2214" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2215" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2215">
+        <v>-21.94</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2215" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2216" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2216">
+        <v>-103.7</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2216" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2217" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2217">
+        <v>-12.18</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2217" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2218" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2218">
+        <v>-50</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2218" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2219" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2219">
+        <v>86</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2219" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2220" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2220">
+        <v>7</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2221" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2221">
+        <v>-161</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2221" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2222" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B2222">
+        <v>-50</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2222" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2223" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B2223">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2224" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B2224">
+        <v>-13.52</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2224" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2225" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B2225">
+        <v>-65.58</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2225" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2226" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B2226">
+        <v>-13.33</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2226" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F2EF9B-13A1-4C40-A7B7-71933462D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBA8406-F1C2-4E4D-9C08-96162B9D9494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6521" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="531">
   <si>
     <t>-</t>
   </si>
@@ -1595,6 +1595,24 @@
   </si>
   <si>
     <t>OPOS SP HOCKEY NEW BRUNSW+1506</t>
+  </si>
+  <si>
+    <t>OPOS 383.96 SM NUTRITION NASHV</t>
+  </si>
+  <si>
+    <t>OPOS 139.02 ADAFRUIT INDUNEW Y</t>
+  </si>
+  <si>
+    <t>OPOS 65.82 ADAFRUIT INDUSNEW Y</t>
+  </si>
+  <si>
+    <t>OPOS DHL EXPRESS ADC QC  BRAMP</t>
+  </si>
+  <si>
+    <t>OPOS AMZN Mktp CA*VN72D0TWWW.A</t>
+  </si>
+  <si>
+    <t>OPOS CRANDALL* CRANDALL U+1506</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2441,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2226"/>
+  <dimension ref="A1:F2271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2165" workbookViewId="0">
-      <selection activeCell="A2226" sqref="A2226"/>
+    <sheetView tabSelected="1" topLeftCell="A2216" workbookViewId="0">
+      <selection activeCell="A2272" sqref="A2272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44487,6 +44505,768 @@
         <v>85</v>
       </c>
     </row>
+    <row r="2227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2227" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B2227">
+        <v>108.6</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2227" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2228" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B2228">
+        <v>-42.48</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2228" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2229" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B2229">
+        <v>-8.14</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2229" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2230" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B2230">
+        <v>-537.91999999999996</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2230" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2231" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B2231">
+        <v>-608.35</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2232" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B2232">
+        <v>-2598.4</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2233" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B2233">
+        <v>-13.79</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2234" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B2234">
+        <v>-119.63</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2235" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B2235">
+        <v>-98.87</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2236" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B2236">
+        <v>-24.99</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2237" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B2237">
+        <v>-191.95</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2237" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2238" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B2238">
+        <v>-90.89</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2238" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2239" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B2239">
+        <v>100</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2239" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2240" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B2240">
+        <v>-18.14</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2241" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B2241">
+        <v>-79.84</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2242" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B2242">
+        <v>-29.99</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2243" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B2243">
+        <v>-47.37</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2244" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B2244">
+        <v>-31.6</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2245" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B2245">
+        <v>-41.18</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2246" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B2246">
+        <v>1470.33</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2247" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B2247">
+        <v>-120.73</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2248" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B2248">
+        <v>-91.99</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2249" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B2249">
+        <v>-62.55</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2250" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B2250">
+        <v>-49.98</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2251" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B2251">
+        <v>-34.479999999999997</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2252" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B2252">
+        <v>-93.5</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2253" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B2253">
+        <v>-31.04</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2254" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B2254">
+        <v>-339.91</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2254" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2255" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B2255">
+        <v>-34.49</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2256" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B2256">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2256" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2257" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B2257">
+        <v>339.91</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2257" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2257" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2258" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B2258">
+        <v>-305.42</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2258" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2258" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2259" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B2259">
+        <v>-73.58</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2259" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2260" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B2260">
+        <v>-64.39</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2260" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2261" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B2261">
+        <v>-75.88</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2261" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2262" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B2262">
+        <v>-61.83</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2262" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2262" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2263" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B2263">
+        <v>-230</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2263" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2264" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B2264">
+        <v>-175</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2264" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2265" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B2265">
+        <v>-7.75</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2265" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2266" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B2266">
+        <v>-50.82</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2266" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2267" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B2267">
+        <v>-45.99</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2267" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2268" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B2268">
+        <v>-32.19</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2268" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2269" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B2269">
+        <v>-64.760000000000005</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2269" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2269" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2270" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B2270">
+        <v>1470.33</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2270" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2271" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B2271">
+        <v>-10</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2271" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2271" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBA8406-F1C2-4E4D-9C08-96162B9D9494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCEF39-9CF1-4A0D-8BCC-5E301784284E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="533">
   <si>
     <t>-</t>
   </si>
@@ -1613,6 +1613,12 @@
   </si>
   <si>
     <t>OPOS CRANDALL* CRANDALL U+1506</t>
+  </si>
+  <si>
+    <t>FPOS PERTH ANDOVER IRVINGPERTH</t>
+  </si>
+  <si>
+    <t>FPOS SH VENDING8003620026MIRAM</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2459,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2271"/>
+  <dimension ref="A1:F2310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2216" workbookViewId="0">
-      <selection activeCell="A2272" sqref="A2272"/>
+    <sheetView tabSelected="1" topLeftCell="A2249" workbookViewId="0">
+      <selection activeCell="D2270" sqref="D2270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45267,6 +45273,666 @@
         <v>530</v>
       </c>
     </row>
+    <row r="2272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2272" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B2272">
+        <v>-100.05</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2272" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2272" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2273" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B2273">
+        <v>-35.64</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2273" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2274" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B2274">
+        <v>-13.79</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2274" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2274" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2275" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B2275">
+        <v>-600</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2275" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2276" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B2276">
+        <v>-39.090000000000003</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2276" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2277" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B2277">
+        <v>-140.28</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2277" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2278" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B2278">
+        <v>-34.49</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2278" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2279" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B2279">
+        <v>-28.88</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2279" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2280" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B2280">
+        <v>-32.99</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2280" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2281" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B2281">
+        <v>-50.83</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2281" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2282" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B2282">
+        <v>-71.900000000000006</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2282" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2283" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B2283">
+        <v>-30.81</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2283" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2284" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B2284">
+        <v>-29.89</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2284" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2285" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B2285">
+        <v>-135.66</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2285" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2286" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B2286">
+        <v>-26.6</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2286" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2287" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B2287">
+        <v>-36.79</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2288" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B2288">
+        <v>-152.31</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2289" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B2289">
+        <v>-45.93</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2289" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2290" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B2290">
+        <v>-5.18</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2290" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2290" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2291" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B2291">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2292" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B2292">
+        <v>-71.3</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2292" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2293" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B2293">
+        <v>-200</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2294" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B2294">
+        <v>-192.5</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2294" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2295" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B2295">
+        <v>-39.99</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2296" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B2296">
+        <v>-137.99</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2296" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2297" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B2297">
+        <v>-2.36</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2297" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2298" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B2298">
+        <v>-1027.98</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2299" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B2299">
+        <v>1470.33</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2300" s="2">
+        <v>44968</v>
+      </c>
+      <c r="B2300">
+        <v>160</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2300" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2301" s="2">
+        <v>44968</v>
+      </c>
+      <c r="B2301">
+        <v>-161</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2301" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2302" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B2302">
+        <v>-62.79</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2302" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2303" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B2303">
+        <v>-61.22</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2304" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B2304">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2305" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B2305">
+        <v>-29.98</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2305" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2306" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B2306">
+        <v>-28.87</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2307" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B2307">
+        <v>-947.78</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2308" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B2308">
+        <v>1470.33</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2309" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B2309">
+        <v>-125.27</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2309" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2309" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2310" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B2310">
+        <v>-600</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2310" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2310" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCEF39-9CF1-4A0D-8BCC-5E301784284E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B7EB03-1AA9-4E3C-88C3-697A196BA18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="534">
   <si>
     <t>-</t>
   </si>
@@ -1619,6 +1619,9 @@
   </si>
   <si>
     <t>FPOS SH VENDING8003620026MIRAM</t>
+  </si>
+  <si>
+    <t>FPOS CNB #021            WOODS</t>
   </si>
 </sst>
 </file>
@@ -2465,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2310"/>
+  <dimension ref="A1:F2345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2249" workbookViewId="0">
-      <selection activeCell="D2270" sqref="D2270"/>
+    <sheetView tabSelected="1" topLeftCell="A2315" workbookViewId="0">
+      <selection activeCell="D2334" sqref="D2334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45933,6 +45936,598 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2311" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B2311">
+        <v>-7.12</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2311" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2312" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B2312">
+        <v>-52.96</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2312" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2312" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2313" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B2313">
+        <v>-15.96</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2313" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2314" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B2314">
+        <v>-200</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2314" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2315" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B2315">
+        <v>-115</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2315" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2315" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2316" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B2316">
+        <v>-72.45</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2316" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2317" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B2317">
+        <v>1470.33</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2317" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2318" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B2318">
+        <v>-104.55</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2318" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2319" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B2319">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2319" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2320" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B2320">
+        <v>-161</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2320" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2321" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B2321">
+        <v>1470.33</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2322" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B2322">
+        <v>-152.94</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2322" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2323" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B2323">
+        <v>-13.79</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2323" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2323" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2324" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B2324">
+        <v>-600</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2324" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2325" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B2325">
+        <v>-2.36</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2325" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2325" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2326" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B2326">
+        <v>-2.36</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2326" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2327" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B2327">
+        <v>-200</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2328" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B2328">
+        <v>-123.5</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2328" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2329" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B2329">
+        <v>160.99</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2330" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B2330">
+        <v>-550</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2331" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B2331">
+        <v>108.6</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2332" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B2332">
+        <v>1470.33</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2332" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2333" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B2333">
+        <v>25</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2333" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2334" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B2334">
+        <v>-288.26</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2334" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2335" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B2335">
+        <v>10</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2335" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2336" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B2336">
+        <v>10</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2337" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B2337">
+        <v>10</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2337" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2338" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B2338">
+        <v>10</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2338" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2339" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B2339">
+        <v>-12</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2339" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2339" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2340" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B2340">
+        <v>-1</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2340" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2340" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2341" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B2341">
+        <v>1470.33</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2342" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B2342">
+        <v>-202</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2343" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B2343">
+        <v>-120</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2343" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2344" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B2344">
+        <v>-8.3800000000000008</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2345" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B2345">
+        <v>-30.79</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2345" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B7EB03-1AA9-4E3C-88C3-697A196BA18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1B87B0-7C10-4621-8D64-F20F8842AB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7005" uniqueCount="545">
   <si>
     <t>-</t>
   </si>
@@ -1622,6 +1622,39 @@
   </si>
   <si>
     <t>FPOS CNB #021            WOODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Payment           </t>
+  </si>
+  <si>
+    <t>FPOS MCDONALD'S #11507   MONCT</t>
+  </si>
+  <si>
+    <t>FPOS TIM HORTONS #2065   SALIS</t>
+  </si>
+  <si>
+    <t>OPOS 24.99 WNBA LEAGUE PA+4420</t>
+  </si>
+  <si>
+    <t>CNB #025                 RIVER</t>
+  </si>
+  <si>
+    <t>FPOS TIM HORTONS #0872   BIBLE</t>
+  </si>
+  <si>
+    <t>FPOS MCDONALD'S #29731   MONCT</t>
+  </si>
+  <si>
+    <t>FPOS WALMART STORE #3659 MONCT</t>
+  </si>
+  <si>
+    <t>FPOS NASHWAAKSIS SUPERSTOFREDE</t>
+  </si>
+  <si>
+    <t>MB-SCOTIABANK GOLD AMEX CARD</t>
+  </si>
+  <si>
+    <t>FPOS CENTREVILLE VALU FOOCENTR</t>
   </si>
 </sst>
 </file>
@@ -2468,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2345"/>
+  <dimension ref="A1:F2389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2315" workbookViewId="0">
-      <selection activeCell="D2334" sqref="D2334"/>
+    <sheetView tabSelected="1" topLeftCell="A2375" workbookViewId="0">
+      <selection activeCell="E2387" sqref="E2387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46528,6 +46561,748 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2346" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B2346">
+        <v>310</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2346" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2347" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B2347">
+        <v>75</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2347" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2348" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B2348">
+        <v>-600</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2349" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B2349">
+        <v>-8.3800000000000008</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2350" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B2350">
+        <v>-158.69999999999999</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2351" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B2351">
+        <v>1470.33</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2351" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2352" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B2352">
+        <v>-2.13</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2352" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2353" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B2353">
+        <v>-2.36</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2353" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2354" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B2354">
+        <v>-2.36</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2355" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B2355">
+        <v>-8.3800000000000008</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2356" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B2356">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2357" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B2357">
+        <v>-2.36</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2357" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2357" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2358" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B2358">
+        <v>-9.2899999999999991</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2358" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2359" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B2359">
+        <v>-16.32</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2359" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2360" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B2360">
+        <v>-12.98</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2360" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2361" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B2361">
+        <v>-8.15</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2361" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2362" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B2362">
+        <v>-34.35</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2363" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B2363">
+        <v>-2.36</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2364" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B2364">
+        <v>-1734.08</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2365" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B2365">
+        <v>-20</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2366" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B2366">
+        <v>-2.95</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2367" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B2367">
+        <v>-2.29</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2368" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B2368">
+        <v>1470.33</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2369" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B2369">
+        <v>932.72</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2370" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B2370">
+        <v>-230</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2371" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B2371">
+        <v>-24.36</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2371" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2372" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B2372">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2372" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2373" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B2373">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2374" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B2374">
+        <v>-38.78</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2375" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B2375">
+        <v>-10.44</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2376" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B2376">
+        <v>-19.39</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2377" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B2377">
+        <v>-4.49</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2378" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B2378">
+        <v>-450</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2379" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B2379">
+        <v>-600</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2380" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B2380">
+        <v>55</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2381" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B2381">
+        <v>-9.19</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2381" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2382" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B2382">
+        <v>-24.96</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2382" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2383" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B2383">
+        <v>1470.33</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2383" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2384" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B2384">
+        <v>-2.95</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2385" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B2385">
+        <v>-2.36</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2385" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2385" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2386" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B2386">
+        <v>-1070.8499999999999</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2387" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B2387">
+        <v>-8.0500000000000007</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2387" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2388" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B2388">
+        <v>-200</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2389" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B2389">
+        <v>-135</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1B87B0-7C10-4621-8D64-F20F8842AB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538BFE29-057D-4613-BB58-832ECD1873DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7005" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="546">
   <si>
     <t>-</t>
   </si>
@@ -1655,6 +1655,9 @@
   </si>
   <si>
     <t>FPOS CENTREVILLE VALU FOOCENTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATH STN MAIN            BATH </t>
   </si>
 </sst>
 </file>
@@ -2501,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2389"/>
+  <dimension ref="A1:F2392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2375" workbookViewId="0">
-      <selection activeCell="E2387" sqref="E2387"/>
+      <selection activeCell="A2390" sqref="A2390:F2392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47303,6 +47306,57 @@
         <v>533</v>
       </c>
     </row>
+    <row r="2390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2390" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B2390">
+        <v>-67.260000000000005</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2391" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B2391">
+        <v>1470.33</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2392" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B2392">
+        <v>-30.79</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538BFE29-057D-4613-BB58-832ECD1873DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD0E11-01B8-45CA-B4E0-35E1CE23CA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7049" uniqueCount="546">
   <si>
     <t>-</t>
   </si>
@@ -2504,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2392"/>
+  <dimension ref="A1:F2404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2375" workbookViewId="0">
-      <selection activeCell="A2390" sqref="A2390:F2392"/>
+    <sheetView tabSelected="1" topLeftCell="A2390" workbookViewId="0">
+      <selection activeCell="G2400" sqref="G2400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47357,6 +47357,207 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2393" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B2393">
+        <v>1470.33</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2394" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B2394">
+        <v>-600</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2394" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2395" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B2395">
+        <v>448.35</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2395" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2396" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B2396">
+        <v>-2081.7399999999998</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2397" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B2397">
+        <v>-230</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2397" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2398" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B2398">
+        <v>-135</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2399" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B2399">
+        <v>280</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2400" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B2400">
+        <v>1470.33</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2401" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B2401">
+        <v>-36.06</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2402" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B2402">
+        <v>-2.06</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2403" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B2403">
+        <v>-2</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2404" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B2404">
+        <v>157</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD0E11-01B8-45CA-B4E0-35E1CE23CA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E132017A-7AC5-4816-832D-88EDF39A74E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7049" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7111" uniqueCount="546">
   <si>
     <t>-</t>
   </si>
@@ -2504,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2404"/>
+  <dimension ref="A1:F2425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2390" workbookViewId="0">
-      <selection activeCell="G2400" sqref="G2400"/>
+    <sheetView tabSelected="1" topLeftCell="A2396" workbookViewId="0">
+      <selection activeCell="K2407" sqref="K2407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47558,6 +47558,360 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2405" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B2405">
+        <v>-4.53</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2406" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B2406">
+        <v>-2000</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2407" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B2407">
+        <v>-100</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2408" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B2408">
+        <v>1470.33</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2409" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B2409">
+        <v>-600</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2410" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B2410">
+        <v>-1882.57</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2411" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B2411">
+        <v>1470.33</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2412" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B2412">
+        <v>-44.98</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2413" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B2413">
+        <v>-2.36</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2414" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B2414">
+        <v>-135</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2415" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B2415">
+        <v>-200</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2416" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B2416">
+        <v>-2.65</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2417" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B2417">
+        <v>-2.36</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2418" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B2418">
+        <v>200</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2419" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B2419">
+        <v>-2.95</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2420" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B2420">
+        <v>-2.36</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2421" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B2421">
+        <v>1470.33</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2422" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B2422">
+        <v>-34.49</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2423" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B2423">
+        <v>203.26</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2424" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B2424">
+        <v>214</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2425" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B2425">
+        <v>-600</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E132017A-7AC5-4816-832D-88EDF39A74E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EA5DC0-B284-4636-8AFD-F8C4D98AEBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7111" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7269" uniqueCount="559">
   <si>
     <t>-</t>
   </si>
@@ -1658,6 +1658,45 @@
   </si>
   <si>
     <t xml:space="preserve">BATH STN MAIN            BATH </t>
+  </si>
+  <si>
+    <t>PC-SCOTIABANK GOLD AMEX CARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPOS ESSO COUCHE-TARD    WEST </t>
+  </si>
+  <si>
+    <t>Climate Action Incentive</t>
+  </si>
+  <si>
+    <t>FPOS TIM HORTONS #0423   FREDE</t>
+  </si>
+  <si>
+    <t>RIVERVIEW HONDA          FREDE</t>
+  </si>
+  <si>
+    <t>DOLLARAMA # 167          WOODS</t>
+  </si>
+  <si>
+    <t>FPOS CENTRE BELL CONCESSIMONTR</t>
+  </si>
+  <si>
+    <t>FPOS STADE SAPUTO - CONCEMONTR</t>
+  </si>
+  <si>
+    <t>FPOS PARC OLYMPIQUE STATIMONTR</t>
+  </si>
+  <si>
+    <t>FPOS DEPANNEUR P.BEDARD &amp;VILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONDA CANADA FINANCE INC.    </t>
+  </si>
+  <si>
+    <t>FPOS TIM HORTONS #2853   FLORE</t>
   </si>
 </sst>
 </file>
@@ -2504,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2425"/>
+  <dimension ref="A1:F2478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2396" workbookViewId="0">
-      <selection activeCell="K2407" sqref="K2407"/>
+    <sheetView tabSelected="1" topLeftCell="A2408" workbookViewId="0">
+      <selection activeCell="D2422" sqref="D2422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47912,6 +47951,904 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2426" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B2426">
+        <v>-29.89</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2427" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B2427">
+        <v>-500</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2428" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B2428">
+        <v>-134.25</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2429" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B2429">
+        <v>1470.33</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2430" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B2430">
+        <v>-230</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2431" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B2431">
+        <v>-157</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2432" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B2432">
+        <v>-2.36</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2433" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B2433">
+        <v>-2.95</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2434" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B2434">
+        <v>-9.19</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2435" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B2435">
+        <v>-34.49</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2436" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B2436">
+        <v>1470.33</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2437" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B2437">
+        <v>-400</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2438" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B2438">
+        <v>-34.49</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2439" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B2439">
+        <v>-9.19</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2440" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B2440">
+        <v>-600</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2441" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B2441">
+        <v>-1000</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2442" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B2442">
+        <v>-1000</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2443" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B2443">
+        <v>-12.52</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2444" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B2444">
+        <v>-135</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2445" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B2445">
+        <v>-215</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2446" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B2446">
+        <v>106.25</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2447" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B2447">
+        <v>1470.33</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2448" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B2448">
+        <v>-34.49</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2449" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B2449">
+        <v>-5.27</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2450" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B2450">
+        <v>-750</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2451" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B2451">
+        <v>184</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2452" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B2452">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2452" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2453" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B2453">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2454" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B2454">
+        <v>1470.33</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2455" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B2455">
+        <v>-1000</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2456" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B2456">
+        <v>-8000</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2457" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B2457">
+        <v>-78.84</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2458" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B2458">
+        <v>-21.43</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2459" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B2459">
+        <v>-100.18</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2460" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B2460">
+        <v>-19.18</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2461" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B2461">
+        <v>-155</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2462" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B2462">
+        <v>-200</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2463" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B2463">
+        <v>-2.06</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2464" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B2464">
+        <v>-13.25</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2465" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B2465">
+        <v>-29.15</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2466" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B2466">
+        <v>-7.75</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2467" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B2467">
+        <v>-30</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2468" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B2468">
+        <v>-8.1</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2469" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B2469">
+        <v>-600</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2470" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B2470">
+        <v>-73.59</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2471" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B2471">
+        <v>1470.33</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2472" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B2472">
+        <v>-366.69</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2473" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B2473">
+        <v>-214</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2474" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B2474">
+        <v>-3000</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2475" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B2475">
+        <v>-780.37</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2476" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B2476">
+        <v>-10.4</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2477" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B2477">
+        <v>-8.0299999999999994</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2478" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B2478">
+        <v>-20.37</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EA5DC0-B284-4636-8AFD-F8C4D98AEBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFD3BEE-B3AF-4D75-A5C1-3960F27D2A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7269" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7423" uniqueCount="562">
   <si>
     <t>-</t>
   </si>
@@ -1697,6 +1697,15 @@
   </si>
   <si>
     <t>FPOS TIM HORTONS #2853   FLORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMBRIDGE INSURANCE COMPANY  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPC / SCP 120219         BATH </t>
+  </si>
+  <si>
+    <t>OPOS WWW.SPORTCHEK.CA    OAKVI</t>
   </si>
 </sst>
 </file>
@@ -2543,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2478"/>
+  <dimension ref="A1:F2530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2408" workbookViewId="0">
-      <selection activeCell="D2422" sqref="D2422"/>
+    <sheetView tabSelected="1" topLeftCell="A2501" workbookViewId="0">
+      <selection activeCell="E2498" sqref="E2498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48849,6 +48858,884 @@
         <v>147</v>
       </c>
     </row>
+    <row r="2479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2479" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B2479">
+        <v>-200</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2480" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B2480">
+        <v>-165</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2481" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B2481">
+        <v>1470.33</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2482" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B2482">
+        <v>-34.49</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2483" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B2483">
+        <v>-366.69</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2484" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B2484">
+        <v>-2000</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2485" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B2485">
+        <v>-134.31</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2486" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B2486">
+        <v>1470.33</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2487" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B2487">
+        <v>-34.49</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2488" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B2488">
+        <v>-600</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2489" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B2489">
+        <v>-366.69</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2490" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B2490">
+        <v>66.94</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2491" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B2491">
+        <v>166.94</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2492" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B2492">
+        <v>-8.0399999999999991</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2493" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B2493">
+        <v>1470.33</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2494" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B2494">
+        <v>-366.69</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2495" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B2495">
+        <v>-1000</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2496" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B2496">
+        <v>-200</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2497" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B2497">
+        <v>-165</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2498" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B2498">
+        <v>-28.09</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2499" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B2499">
+        <v>-134.31</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2500" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B2500">
+        <v>-1000</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2501" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B2501">
+        <v>1470.33</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2502" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B2502">
+        <v>-31.81</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2503" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B2503">
+        <v>-366.69</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2504" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B2504">
+        <v>-600</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2505" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B2505">
+        <v>-102.34</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2506" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B2506">
+        <v>-22.36</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2507" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B2507">
+        <v>-9.19</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2508" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B2508">
+        <v>106.25</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2509" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B2509">
+        <v>-43.05</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2510" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B2510">
+        <v>-33.99</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2511" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B2511">
+        <v>-9.9700000000000006</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2512" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B2512">
+        <v>-843.2</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2513" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B2513">
+        <v>1480.02</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2514" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B2514">
+        <v>-366.69</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2515" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B2515">
+        <v>92</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2516" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B2516">
+        <v>-33.99</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2517" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B2517">
+        <v>-1000</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2518" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B2518">
+        <v>-134.31</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2519" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B2519">
+        <v>1518.16</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2520" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B2520">
+        <v>-366.69</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2521" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B2521">
+        <v>-200</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2522" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B2522">
+        <v>-600</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2523" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B2523">
+        <v>-16.95</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2523" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2524" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B2524">
+        <v>-34.49</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2525" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B2525">
+        <v>-200</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2526" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B2526">
+        <v>-167</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2527" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B2527">
+        <v>-172.48</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2528" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B2528">
+        <v>1518.16</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2529" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B2529">
+        <v>-1168.95</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2530" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B2530">
+        <v>-143.72</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>561</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFD3BEE-B3AF-4D75-A5C1-3960F27D2A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2438BF-9934-4031-9907-603C62F1DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7423" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7503" uniqueCount="565">
   <si>
     <t>-</t>
   </si>
@@ -1706,6 +1706,15 @@
   </si>
   <si>
     <t>OPOS WWW.SPORTCHEK.CA    OAKVI</t>
+  </si>
+  <si>
+    <t>OPOS 485.00 SPORTS K.COM ALLEN</t>
+  </si>
+  <si>
+    <t>FPOS TIM HORTONS #1208   QUISP</t>
+  </si>
+  <si>
+    <t>FPOS POPEYES #4802       WOODS</t>
   </si>
 </sst>
 </file>
@@ -2552,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2530"/>
+  <dimension ref="A1:F2557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2501" workbookViewId="0">
-      <selection activeCell="E2498" sqref="E2498"/>
+    <sheetView tabSelected="1" topLeftCell="A2525" workbookViewId="0">
+      <selection activeCell="C2557" sqref="C2557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49736,6 +49745,462 @@
         <v>561</v>
       </c>
     </row>
+    <row r="2531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2531" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B2531">
+        <v>-366.69</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2532" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B2532">
+        <v>-161</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2533" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B2533">
+        <v>-34.65</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2534" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B2534">
+        <v>1518.16</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2535" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B2535">
+        <v>-134.31</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2536" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B2536">
+        <v>-366.69</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2537" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B2537">
+        <v>-93.49</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2538" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B2538">
+        <v>34.69</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2539" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B2539">
+        <v>-16.95</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2540" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B2540">
+        <v>-600</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2540" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2541" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B2541">
+        <v>-676.14</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2541" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2542" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B2542">
+        <v>-28.61</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2542" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2543" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B2543">
+        <v>-64.87</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2543" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2544" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2544">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2544" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2545" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2545">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2545" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2546" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2546">
+        <v>-200</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2546" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2547" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2547">
+        <v>-175</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2547" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2548" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2548">
+        <v>-14.94</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2548" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2549" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2549">
+        <v>-58.59</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2549" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2549" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2550" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2550">
+        <v>-19.5</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2550" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2550" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2551" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B2551">
+        <v>-20.37</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2551" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2551" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2552" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B2552">
+        <v>-9.19</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2552" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2552" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2553" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B2553">
+        <v>1518.16</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2553" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2553" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2554" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B2554">
+        <v>-64.02</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2554" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2554" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2555" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B2555">
+        <v>-366.69</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2555" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2555" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2556" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B2556">
+        <v>-760.54</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2557" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B2557">
+        <v>-161</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2557" t="s">
+        <v>377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2438BF-9934-4031-9907-603C62F1DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65808523-6ECE-404E-B26C-7C4414B9B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7503" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7697" uniqueCount="571">
   <si>
     <t>-</t>
   </si>
@@ -1715,6 +1715,24 @@
   </si>
   <si>
     <t>FPOS POPEYES #4802       WOODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Transfer Dr.  </t>
+  </si>
+  <si>
+    <t>MB-CREDIT CARD/LOC PAY.</t>
+  </si>
+  <si>
+    <t>FPOS CPC / SCP 120529    CENTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPOS ULTRAMAR #12659          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUNTAIN VIEW AUTO       BATH </t>
+  </si>
+  <si>
+    <t>FPOS TIM HORTONS #2111   RIVER</t>
   </si>
 </sst>
 </file>
@@ -2561,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2557"/>
+  <dimension ref="A1:F2622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2525" workbookViewId="0">
-      <selection activeCell="C2557" sqref="C2557"/>
+    <sheetView tabSelected="1" topLeftCell="A2570" workbookViewId="0">
+      <selection activeCell="B2622" sqref="B2622:E2622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50201,6 +50219,1108 @@
         <v>377</v>
       </c>
     </row>
+    <row r="2558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2558" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B2558">
+        <v>-9.19</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2558" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2559" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B2559">
+        <v>-50.28</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2559" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2560" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B2560">
+        <v>-74.56</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2560" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2560" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2561" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B2561">
+        <v>-16.04</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2561" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2562" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B2562">
+        <v>-87.3</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2562" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2562" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2563" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B2563">
+        <v>1518.16</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2563" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2564" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B2564">
+        <v>-19.12</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2564" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2565" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B2565">
+        <v>-366.69</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2565" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2566" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B2566">
+        <v>-134.31</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2566" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2567" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B2567">
+        <v>-60.06</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2567" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2568" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B2568">
+        <v>-18.04</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2569" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B2569">
+        <v>-9.19</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2569" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2570" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B2570">
+        <v>-47</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2570" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2571" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B2571">
+        <v>-500</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2571" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2571" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2572" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B2572">
+        <v>-16.95</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2573" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B2573">
+        <v>-600</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2573" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2574" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B2574">
+        <v>1518.16</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2574" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2574" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2575" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B2575">
+        <v>106.25</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2575" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2575" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2576" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B2576">
+        <v>-46.33</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2576" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2577" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B2577">
+        <v>-366.69</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2577" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2578" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B2578">
+        <v>-26.19</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2578" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2579" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B2579">
+        <v>-9.39</v>
+      </c>
+      <c r="C2579" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2579" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2580" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B2580">
+        <v>-62.26</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2580" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2581" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B2581">
+        <v>-161</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2581" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2582" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B2582">
+        <v>-87.98</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2582" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2583" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B2583">
+        <v>-283</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2583" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2583" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2584" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B2584">
+        <v>-145</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2584" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2585" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B2585">
+        <v>1518.16</v>
+      </c>
+      <c r="C2585" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2585" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2586" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B2586">
+        <v>-366.69</v>
+      </c>
+      <c r="C2586" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2586" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2587" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B2587">
+        <v>10</v>
+      </c>
+      <c r="C2587" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2587" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2588" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B2588">
+        <v>20</v>
+      </c>
+      <c r="C2588" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2588" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2589" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B2589">
+        <v>20</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2589" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2589" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2590" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B2590">
+        <v>10</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2590" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2591" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B2591">
+        <v>-73.23</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2591" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2591" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2592" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B2592">
+        <v>-134.31</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2592" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2593" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2593">
+        <v>-22.85</v>
+      </c>
+      <c r="C2593" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2593" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2594" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B2594">
+        <v>-62.87</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2594" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2595" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B2595">
+        <v>-202.84</v>
+      </c>
+      <c r="C2595" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2595" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2596" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B2596">
+        <v>-16.95</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2596" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2597" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B2597">
+        <v>-600</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2597" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2598" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B2598">
+        <v>1518.16</v>
+      </c>
+      <c r="C2598" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2598" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2599" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B2599">
+        <v>-366.69</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2599" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2600" s="2">
+        <v>45416</v>
+      </c>
+      <c r="B2600">
+        <v>-4.59</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2600" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2601" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B2601">
+        <v>-1082.98</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2602" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B2602">
+        <v>-62.66</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2602" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2603" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B2603">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2603" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2604" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B2604">
+        <v>-161</v>
+      </c>
+      <c r="C2604" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2604" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2605" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B2605">
+        <v>300</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2605" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2606" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B2606">
+        <v>1518.16</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2606" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2607" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B2607">
+        <v>-68.84</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2607" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2608" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B2608">
+        <v>-366.69</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2608" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2609" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2609">
+        <v>10</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2609" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2610" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2610">
+        <v>-134.31</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2610" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2610" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2611" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B2611">
+        <v>221.19</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2611" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2612" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B2612">
+        <v>-60.16</v>
+      </c>
+      <c r="C2612" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2612" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2613" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B2613">
+        <v>-20.37</v>
+      </c>
+      <c r="C2613" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2613" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2614" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B2614">
+        <v>-48.99</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2614" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2615" s="2">
+        <v>45437</v>
+      </c>
+      <c r="B2615">
+        <v>-100</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2615" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2616" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B2616">
+        <v>-166</v>
+      </c>
+      <c r="C2616" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2616" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2617" s="2">
+        <v>45439</v>
+      </c>
+      <c r="B2617">
+        <v>-180</v>
+      </c>
+      <c r="C2617" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2617" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2617" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2618" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B2618">
+        <v>10</v>
+      </c>
+      <c r="C2618" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2618" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2618" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2619" s="2">
+        <v>45442</v>
+      </c>
+      <c r="B2619">
+        <v>1518.16</v>
+      </c>
+      <c r="C2619" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2619" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2619" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2620" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B2620">
+        <v>-16.95</v>
+      </c>
+      <c r="C2620" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2620" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2621" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B2621">
+        <v>-366.69</v>
+      </c>
+      <c r="C2621" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2621" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2621" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2622" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B2622">
+        <v>-600</v>
+      </c>
+      <c r="C2622" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2622" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2622" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65808523-6ECE-404E-B26C-7C4414B9B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12768A3A-0185-4DA9-AB3C-DC84CBB0E16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7697" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7747" uniqueCount="573">
   <si>
     <t>-</t>
   </si>
@@ -1733,6 +1733,12 @@
   </si>
   <si>
     <t>FPOS TIM HORTONS #2111   RIVER</t>
+  </si>
+  <si>
+    <t>OPOS Starlink            Halif</t>
+  </si>
+  <si>
+    <t>PC TO 379241652316012</t>
   </si>
 </sst>
 </file>
@@ -2579,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2622"/>
+  <dimension ref="A1:F2639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2570" workbookViewId="0">
-      <selection activeCell="B2622" sqref="B2622:E2622"/>
+    <sheetView tabSelected="1" topLeftCell="A2585" workbookViewId="0">
+      <selection activeCell="B2639" sqref="B2639:F2639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51321,6 +51327,292 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2623" s="2">
+        <v>45447</v>
+      </c>
+      <c r="B2623">
+        <v>-155</v>
+      </c>
+      <c r="C2623" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2623" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2623" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2624" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B2624">
+        <v>-1000</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2624" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2624" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2625" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B2625">
+        <v>-796.91</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2625" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2626" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B2626">
+        <v>25.05</v>
+      </c>
+      <c r="C2626" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2626" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2626" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2627" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B2627">
+        <v>-161</v>
+      </c>
+      <c r="C2627" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2627" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2627" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2628" s="2">
+        <v>45456</v>
+      </c>
+      <c r="B2628">
+        <v>1518.16</v>
+      </c>
+      <c r="C2628" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2628" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2628" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2629" s="2">
+        <v>45457</v>
+      </c>
+      <c r="B2629">
+        <v>132.1</v>
+      </c>
+      <c r="C2629" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2629" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2629" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2630" s="2">
+        <v>45457</v>
+      </c>
+      <c r="B2630">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C2630" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2630" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2630" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2631" s="2">
+        <v>45457</v>
+      </c>
+      <c r="B2631">
+        <v>-366.69</v>
+      </c>
+      <c r="C2631" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2631" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2632" s="2">
+        <v>45464</v>
+      </c>
+      <c r="B2632">
+        <v>50</v>
+      </c>
+      <c r="C2632" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2632" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2632" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2633" s="2">
+        <v>45464</v>
+      </c>
+      <c r="B2633">
+        <v>78.58</v>
+      </c>
+      <c r="C2633" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2633" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2633" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2634" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B2634">
+        <v>-134.31</v>
+      </c>
+      <c r="C2634" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2634" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2634" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2635" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B2635">
+        <v>1518.16</v>
+      </c>
+      <c r="C2635" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2635" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2635" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2636" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B2636">
+        <v>-600</v>
+      </c>
+      <c r="C2636" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2636" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2637" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B2637">
+        <v>-366.69</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2637" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2637" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2638" s="2">
+        <v>45472</v>
+      </c>
+      <c r="B2638">
+        <v>-16.95</v>
+      </c>
+      <c r="C2638" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2638" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2638" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2639" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B2639">
+        <v>-600</v>
+      </c>
+      <c r="C2639" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2639" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2639" t="s">
+        <v>572</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12768A3A-0185-4DA9-AB3C-DC84CBB0E16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DC40D-2C7B-472C-95EA-923FC72A7CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7747" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7885" uniqueCount="600">
   <si>
     <t>-</t>
   </si>
@@ -1739,15 +1739,93 @@
   </si>
   <si>
     <t>PC TO 379241652316012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nslsc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnb #021                 Woods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opos Starlink Internet   Halif </t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Interac E-Transfer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fpos Ultramar #12659 </t>
+  </si>
+  <si>
+    <t>CRD. Card Bill Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bws Manufacturing Ltd </t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honda Canada Finance Inc. </t>
+  </si>
+  <si>
+    <t>Canada Carbon Rebate</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembridge Insurance Company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnb #005                 Sackv </t>
+  </si>
+  <si>
+    <t>Customer Transfer Dr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mb-Credit Card/Loc Pay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fpos Florenceville Irvingwest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Fees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnb #018                 Perth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fpos Alcool Nb Liquor  #0salis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mb-Dep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fpos Mountain View Auto  Bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fpos Brennan Home Hardwarflore </t>
+  </si>
+  <si>
+    <t>Bill Payment</t>
+  </si>
+  <si>
+    <t>Pc-Scotiabank Gold Amex Card 96650969</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2225,11 +2303,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2585,15 +2664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2639"/>
+  <dimension ref="A1:F2685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2585" workbookViewId="0">
-      <selection activeCell="B2639" sqref="B2639:F2639"/>
+    <sheetView tabSelected="1" topLeftCell="A2634" workbookViewId="0">
+      <selection activeCell="B2634" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -39888,7 +39967,7 @@
       </c>
     </row>
     <row r="1946" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1946" s="3">
+      <c r="A1946" s="2">
         <v>44609</v>
       </c>
       <c r="B1946">
@@ -39905,7 +39984,7 @@
       </c>
     </row>
     <row r="1947" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1947" s="3">
+      <c r="A1947" s="2">
         <v>44608</v>
       </c>
       <c r="B1947">
@@ -39922,7 +40001,7 @@
       </c>
     </row>
     <row r="1948" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1948" s="3">
+      <c r="A1948" s="2">
         <v>44603</v>
       </c>
       <c r="B1948">
@@ -39939,7 +40018,7 @@
       </c>
     </row>
     <row r="1949" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1949" s="3">
+      <c r="A1949" s="2">
         <v>44603</v>
       </c>
       <c r="B1949">
@@ -39956,7 +40035,7 @@
       </c>
     </row>
     <row r="1950" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1950" s="3">
+      <c r="A1950" s="2">
         <v>44603</v>
       </c>
       <c r="B1950">
@@ -39973,7 +40052,7 @@
       </c>
     </row>
     <row r="1951" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1951" s="3">
+      <c r="A1951" s="2">
         <v>44603</v>
       </c>
       <c r="B1951">
@@ -39990,7 +40069,7 @@
       </c>
     </row>
     <row r="1952" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1952" s="3">
+      <c r="A1952" s="2">
         <v>44603</v>
       </c>
       <c r="B1952">
@@ -40313,7 +40392,7 @@
       </c>
     </row>
     <row r="1971" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1971" s="3">
+      <c r="A1971" s="2">
         <v>44652</v>
       </c>
       <c r="B1971">
@@ -40330,7 +40409,7 @@
       </c>
     </row>
     <row r="1972" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1972" s="3">
+      <c r="A1972" s="2">
         <v>44652</v>
       </c>
       <c r="B1972">
@@ -40347,7 +40426,7 @@
       </c>
     </row>
     <row r="1973" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1973" s="3">
+      <c r="A1973" s="2">
         <v>44652</v>
       </c>
       <c r="B1973">
@@ -40364,7 +40443,7 @@
       </c>
     </row>
     <row r="1974" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1974" s="3">
+      <c r="A1974" s="2">
         <v>44652</v>
       </c>
       <c r="B1974">
@@ -40381,7 +40460,7 @@
       </c>
     </row>
     <row r="1975" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1975" s="3">
+      <c r="A1975" s="2">
         <v>44651</v>
       </c>
       <c r="B1975">
@@ -40398,7 +40477,7 @@
       </c>
     </row>
     <row r="1976" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1976" s="3">
+      <c r="A1976" s="2">
         <v>44651</v>
       </c>
       <c r="B1976">
@@ -40415,7 +40494,7 @@
       </c>
     </row>
     <row r="1977" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1977" s="3">
+      <c r="A1977" s="2">
         <v>44650</v>
       </c>
       <c r="B1977">
@@ -40432,7 +40511,7 @@
       </c>
     </row>
     <row r="1978" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1978" s="3">
+      <c r="A1978" s="2">
         <v>44644</v>
       </c>
       <c r="B1978">
@@ -40449,7 +40528,7 @@
       </c>
     </row>
     <row r="1979" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1979" s="3">
+      <c r="A1979" s="2">
         <v>44643</v>
       </c>
       <c r="B1979">
@@ -40466,7 +40545,7 @@
       </c>
     </row>
     <row r="1980" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1980" s="3">
+      <c r="A1980" s="2">
         <v>44642</v>
       </c>
       <c r="B1980">
@@ -40483,7 +40562,7 @@
       </c>
     </row>
     <row r="1981" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1981" s="3">
+      <c r="A1981" s="2">
         <v>44638</v>
       </c>
       <c r="B1981">
@@ -40500,7 +40579,7 @@
       </c>
     </row>
     <row r="1982" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1982" s="3">
+      <c r="A1982" s="2">
         <v>44638</v>
       </c>
       <c r="B1982">
@@ -41333,7 +41412,7 @@
       </c>
     </row>
     <row r="2031" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2031" s="3">
+      <c r="A2031" s="2">
         <v>44713</v>
       </c>
       <c r="B2031">
@@ -41350,7 +41429,7 @@
       </c>
     </row>
     <row r="2032" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2032" s="3">
+      <c r="A2032" s="2">
         <v>44714</v>
       </c>
       <c r="B2032">
@@ -41367,7 +41446,7 @@
       </c>
     </row>
     <row r="2033" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2033" s="3">
+      <c r="A2033" s="2">
         <v>44718</v>
       </c>
       <c r="B2033">
@@ -41384,7 +41463,7 @@
       </c>
     </row>
     <row r="2034" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2034" s="3">
+      <c r="A2034" s="2">
         <v>44718</v>
       </c>
       <c r="B2034">
@@ -41401,7 +41480,7 @@
       </c>
     </row>
     <row r="2035" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2035" s="3">
+      <c r="A2035" s="2">
         <v>44720</v>
       </c>
       <c r="B2035">
@@ -41415,7 +41494,7 @@
       </c>
     </row>
     <row r="2036" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2036" s="3">
+      <c r="A2036" s="2">
         <v>44720</v>
       </c>
       <c r="B2036">
@@ -41432,7 +41511,7 @@
       </c>
     </row>
     <row r="2037" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2037" s="3">
+      <c r="A2037" s="2">
         <v>44721</v>
       </c>
       <c r="B2037">
@@ -41449,7 +41528,7 @@
       </c>
     </row>
     <row r="2038" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2038" s="3">
+      <c r="A2038" s="2">
         <v>44722</v>
       </c>
       <c r="B2038">
@@ -41466,7 +41545,7 @@
       </c>
     </row>
     <row r="2039" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2039" s="3">
+      <c r="A2039" s="2">
         <v>44722</v>
       </c>
       <c r="B2039">
@@ -41483,7 +41562,7 @@
       </c>
     </row>
     <row r="2040" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2040" s="3">
+      <c r="A2040" s="2">
         <v>44722</v>
       </c>
       <c r="B2040">
@@ -41500,7 +41579,7 @@
       </c>
     </row>
     <row r="2041" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2041" s="3">
+      <c r="A2041" s="2">
         <v>44722</v>
       </c>
       <c r="B2041">
@@ -41517,7 +41596,7 @@
       </c>
     </row>
     <row r="2042" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2042" s="3">
+      <c r="A2042" s="2">
         <v>44722</v>
       </c>
       <c r="B2042">
@@ -41534,7 +41613,7 @@
       </c>
     </row>
     <row r="2043" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2043" s="3">
+      <c r="A2043" s="2">
         <v>44725</v>
       </c>
       <c r="B2043">
@@ -41551,7 +41630,7 @@
       </c>
     </row>
     <row r="2044" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2044" s="3">
+      <c r="A2044" s="2">
         <v>44728</v>
       </c>
       <c r="B2044">
@@ -41568,7 +41647,7 @@
       </c>
     </row>
     <row r="2045" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2045" s="3">
+      <c r="A2045" s="2">
         <v>44729</v>
       </c>
       <c r="B2045">
@@ -41585,7 +41664,7 @@
       </c>
     </row>
     <row r="2046" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2046" s="3">
+      <c r="A2046" s="2">
         <v>44729</v>
       </c>
       <c r="B2046">
@@ -41602,7 +41681,7 @@
       </c>
     </row>
     <row r="2047" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2047" s="3">
+      <c r="A2047" s="2">
         <v>44732</v>
       </c>
       <c r="B2047">
@@ -41619,7 +41698,7 @@
       </c>
     </row>
     <row r="2048" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2048" s="3">
+      <c r="A2048" s="2">
         <v>44732</v>
       </c>
       <c r="B2048">
@@ -41636,7 +41715,7 @@
       </c>
     </row>
     <row r="2049" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2049" s="3">
+      <c r="A2049" s="2">
         <v>44733</v>
       </c>
       <c r="B2049">
@@ -41653,7 +41732,7 @@
       </c>
     </row>
     <row r="2050" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2050" s="3">
+      <c r="A2050" s="2">
         <v>44734</v>
       </c>
       <c r="B2050">
@@ -41670,7 +41749,7 @@
       </c>
     </row>
     <row r="2051" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2051" s="3">
+      <c r="A2051" s="2">
         <v>44734</v>
       </c>
       <c r="B2051">
@@ -41687,7 +41766,7 @@
       </c>
     </row>
     <row r="2052" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2052" s="3">
+      <c r="A2052" s="2">
         <v>44734</v>
       </c>
       <c r="B2052">
@@ -41704,7 +41783,7 @@
       </c>
     </row>
     <row r="2053" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2053" s="3">
+      <c r="A2053" s="2">
         <v>44734</v>
       </c>
       <c r="B2053">
@@ -41721,7 +41800,7 @@
       </c>
     </row>
     <row r="2054" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2054" s="3">
+      <c r="A2054" s="2">
         <v>44735</v>
       </c>
       <c r="B2054">
@@ -41738,7 +41817,7 @@
       </c>
     </row>
     <row r="2055" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2055" s="3">
+      <c r="A2055" s="2">
         <v>44735</v>
       </c>
       <c r="B2055">
@@ -41755,7 +41834,7 @@
       </c>
     </row>
     <row r="2056" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2056" s="3">
+      <c r="A2056" s="2">
         <v>44735</v>
       </c>
       <c r="B2056">
@@ -41772,7 +41851,7 @@
       </c>
     </row>
     <row r="2057" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2057" s="3">
+      <c r="A2057" s="2">
         <v>44736</v>
       </c>
       <c r="B2057">
@@ -41789,7 +41868,7 @@
       </c>
     </row>
     <row r="2058" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2058" s="3">
+      <c r="A2058" s="2">
         <v>44736</v>
       </c>
       <c r="B2058">
@@ -41806,7 +41885,7 @@
       </c>
     </row>
     <row r="2059" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2059" s="3">
+      <c r="A2059" s="2">
         <v>44736</v>
       </c>
       <c r="B2059">
@@ -41823,7 +41902,7 @@
       </c>
     </row>
     <row r="2060" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2060" s="3">
+      <c r="A2060" s="2">
         <v>44736</v>
       </c>
       <c r="B2060">
@@ -41840,7 +41919,7 @@
       </c>
     </row>
     <row r="2061" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2061" s="3">
+      <c r="A2061" s="2">
         <v>44737</v>
       </c>
       <c r="B2061">
@@ -41857,7 +41936,7 @@
       </c>
     </row>
     <row r="2062" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2062" s="3">
+      <c r="A2062" s="2">
         <v>44737</v>
       </c>
       <c r="B2062">
@@ -41874,7 +41953,7 @@
       </c>
     </row>
     <row r="2063" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2063" s="3">
+      <c r="A2063" s="2">
         <v>44737</v>
       </c>
       <c r="B2063">
@@ -41891,7 +41970,7 @@
       </c>
     </row>
     <row r="2064" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2064" s="3">
+      <c r="A2064" s="2">
         <v>44739</v>
       </c>
       <c r="B2064">
@@ -41908,7 +41987,7 @@
       </c>
     </row>
     <row r="2065" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2065" s="3">
+      <c r="A2065" s="2">
         <v>44740</v>
       </c>
       <c r="B2065">
@@ -41925,7 +42004,7 @@
       </c>
     </row>
     <row r="2066" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2066" s="3">
+      <c r="A2066" s="2">
         <v>44741</v>
       </c>
       <c r="B2066">
@@ -41942,7 +42021,7 @@
       </c>
     </row>
     <row r="2067" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2067" s="3">
+      <c r="A2067" s="2">
         <v>44742</v>
       </c>
       <c r="B2067">
@@ -41959,7 +42038,7 @@
       </c>
     </row>
     <row r="2068" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2068" s="3">
+      <c r="A2068" s="2">
         <v>44742</v>
       </c>
       <c r="B2068">
@@ -41976,7 +42055,7 @@
       </c>
     </row>
     <row r="2069" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2069" s="3">
+      <c r="A2069" s="2">
         <v>44742</v>
       </c>
       <c r="B2069">
@@ -41993,7 +42072,7 @@
       </c>
     </row>
     <row r="2070" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2070" s="3">
+      <c r="A2070" s="2">
         <v>44744</v>
       </c>
       <c r="B2070">
@@ -42010,7 +42089,7 @@
       </c>
     </row>
     <row r="2071" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2071" s="3">
+      <c r="A2071" s="2">
         <v>44746</v>
       </c>
       <c r="B2071">
@@ -42027,7 +42106,7 @@
       </c>
     </row>
     <row r="2072" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2072" s="3">
+      <c r="A2072" s="2">
         <v>44747</v>
       </c>
       <c r="B2072">
@@ -42044,7 +42123,7 @@
       </c>
     </row>
     <row r="2073" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2073" s="3">
+      <c r="A2073" s="2">
         <v>44747</v>
       </c>
       <c r="B2073">
@@ -42061,7 +42140,7 @@
       </c>
     </row>
     <row r="2074" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2074" s="3">
+      <c r="A2074" s="2">
         <v>44747</v>
       </c>
       <c r="B2074">
@@ -42078,7 +42157,7 @@
       </c>
     </row>
     <row r="2075" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2075" s="3">
+      <c r="A2075" s="2">
         <v>44750</v>
       </c>
       <c r="B2075">
@@ -42381,7 +42460,7 @@
       </c>
     </row>
     <row r="2093" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2093" s="3">
+      <c r="A2093" s="2">
         <v>44774</v>
       </c>
       <c r="B2093">
@@ -42398,7 +42477,7 @@
       </c>
     </row>
     <row r="2094" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2094" s="3">
+      <c r="A2094" s="2">
         <v>44774</v>
       </c>
       <c r="B2094">
@@ -42415,7 +42494,7 @@
       </c>
     </row>
     <row r="2095" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2095" s="3">
+      <c r="A2095" s="2">
         <v>44778</v>
       </c>
       <c r="B2095">
@@ -42432,7 +42511,7 @@
       </c>
     </row>
     <row r="2096" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2096" s="3">
+      <c r="A2096" s="2">
         <v>44783</v>
       </c>
       <c r="B2096">
@@ -42449,7 +42528,7 @@
       </c>
     </row>
     <row r="2097" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2097" s="3">
+      <c r="A2097" s="2">
         <v>44783</v>
       </c>
       <c r="B2097">
@@ -42466,7 +42545,7 @@
       </c>
     </row>
     <row r="2098" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2098" s="3">
+      <c r="A2098" s="2">
         <v>44783</v>
       </c>
       <c r="B2098">
@@ -42483,7 +42562,7 @@
       </c>
     </row>
     <row r="2099" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2099" s="3">
+      <c r="A2099" s="2">
         <v>44783</v>
       </c>
       <c r="B2099">
@@ -42497,7 +42576,7 @@
       </c>
     </row>
     <row r="2100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2100" s="3">
+      <c r="A2100" s="2">
         <v>44784</v>
       </c>
       <c r="B2100">
@@ -42514,7 +42593,7 @@
       </c>
     </row>
     <row r="2101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2101" s="3">
+      <c r="A2101" s="2">
         <v>44784</v>
       </c>
       <c r="B2101">
@@ -42531,7 +42610,7 @@
       </c>
     </row>
     <row r="2102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2102" s="3">
+      <c r="A2102" s="2">
         <v>44784</v>
       </c>
       <c r="B2102">
@@ -42548,7 +42627,7 @@
       </c>
     </row>
     <row r="2103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2103" s="3">
+      <c r="A2103" s="2">
         <v>44785</v>
       </c>
       <c r="B2103">
@@ -42565,7 +42644,7 @@
       </c>
     </row>
     <row r="2104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2104" s="3">
+      <c r="A2104" s="2">
         <v>44792</v>
       </c>
       <c r="B2104">
@@ -42582,7 +42661,7 @@
       </c>
     </row>
     <row r="2105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2105" s="3">
+      <c r="A2105" s="2">
         <v>44792</v>
       </c>
       <c r="B2105">
@@ -42599,7 +42678,7 @@
       </c>
     </row>
     <row r="2106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2106" s="3">
+      <c r="A2106" s="2">
         <v>44792</v>
       </c>
       <c r="B2106">
@@ -42616,7 +42695,7 @@
       </c>
     </row>
     <row r="2107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2107" s="3">
+      <c r="A2107" s="2">
         <v>44795</v>
       </c>
       <c r="B2107">
@@ -42633,7 +42712,7 @@
       </c>
     </row>
     <row r="2108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2108" s="3">
+      <c r="A2108" s="2">
         <v>44798</v>
       </c>
       <c r="B2108">
@@ -42650,7 +42729,7 @@
       </c>
     </row>
     <row r="2109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2109" s="3">
+      <c r="A2109" s="2">
         <v>44799</v>
       </c>
       <c r="B2109">
@@ -42667,7 +42746,7 @@
       </c>
     </row>
     <row r="2110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2110" s="3">
+      <c r="A2110" s="2">
         <v>44799</v>
       </c>
       <c r="B2110">
@@ -42684,7 +42763,7 @@
       </c>
     </row>
     <row r="2111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2111" s="3">
+      <c r="A2111" s="2">
         <v>44802</v>
       </c>
       <c r="B2111">
@@ -42701,7 +42780,7 @@
       </c>
     </row>
     <row r="2112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2112" s="3">
+      <c r="A2112" s="2">
         <v>44802</v>
       </c>
       <c r="B2112">
@@ -42831,7 +42910,7 @@
       </c>
     </row>
     <row r="2120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2120" s="3">
+      <c r="A2120" s="2">
         <v>44811</v>
       </c>
       <c r="B2120">
@@ -42848,7 +42927,7 @@
       </c>
     </row>
     <row r="2121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2121" s="3">
+      <c r="A2121" s="2">
         <v>44811</v>
       </c>
       <c r="B2121">
@@ -42862,7 +42941,7 @@
       </c>
     </row>
     <row r="2122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2122" s="3">
+      <c r="A2122" s="2">
         <v>44812</v>
       </c>
       <c r="B2122">
@@ -42879,7 +42958,7 @@
       </c>
     </row>
     <row r="2123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2123" s="3">
+      <c r="A2123" s="2">
         <v>44812</v>
       </c>
       <c r="B2123">
@@ -42896,7 +42975,7 @@
       </c>
     </row>
     <row r="2124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2124" s="3">
+      <c r="A2124" s="2">
         <v>44816</v>
       </c>
       <c r="B2124">
@@ -42913,7 +42992,7 @@
       </c>
     </row>
     <row r="2125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2125" s="3">
+      <c r="A2125" s="2">
         <v>44819</v>
       </c>
       <c r="B2125">
@@ -42930,7 +43009,7 @@
       </c>
     </row>
     <row r="2126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2126" s="3">
+      <c r="A2126" s="2">
         <v>44820</v>
       </c>
       <c r="B2126">
@@ -42947,7 +43026,7 @@
       </c>
     </row>
     <row r="2127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2127" s="3">
+      <c r="A2127" s="2">
         <v>44820</v>
       </c>
       <c r="B2127">
@@ -42964,7 +43043,7 @@
       </c>
     </row>
     <row r="2128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2128" s="3">
+      <c r="A2128" s="2">
         <v>44823</v>
       </c>
       <c r="B2128">
@@ -42981,7 +43060,7 @@
       </c>
     </row>
     <row r="2129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2129" s="3">
+      <c r="A2129" s="2">
         <v>44823</v>
       </c>
       <c r="B2129">
@@ -42998,7 +43077,7 @@
       </c>
     </row>
     <row r="2130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2130" s="3">
+      <c r="A2130" s="2">
         <v>44824</v>
       </c>
       <c r="B2130">
@@ -43015,7 +43094,7 @@
       </c>
     </row>
     <row r="2131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2131" s="3">
+      <c r="A2131" s="2">
         <v>44824</v>
       </c>
       <c r="B2131">
@@ -43032,7 +43111,7 @@
       </c>
     </row>
     <row r="2132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2132" s="3">
+      <c r="A2132" s="2">
         <v>44824</v>
       </c>
       <c r="B2132">
@@ -43049,7 +43128,7 @@
       </c>
     </row>
     <row r="2133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2133" s="3">
+      <c r="A2133" s="2">
         <v>44826</v>
       </c>
       <c r="B2133">
@@ -43066,7 +43145,7 @@
       </c>
     </row>
     <row r="2134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2134" s="3">
+      <c r="A2134" s="2">
         <v>44827</v>
       </c>
       <c r="B2134">
@@ -43080,7 +43159,7 @@
       </c>
     </row>
     <row r="2135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2135" s="3">
+      <c r="A2135" s="2">
         <v>44830</v>
       </c>
       <c r="B2135">
@@ -43097,7 +43176,7 @@
       </c>
     </row>
     <row r="2136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2136" s="3">
+      <c r="A2136" s="2">
         <v>44830</v>
       </c>
       <c r="B2136">
@@ -43114,7 +43193,7 @@
       </c>
     </row>
     <row r="2137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2137" s="3">
+      <c r="A2137" s="2">
         <v>44831</v>
       </c>
       <c r="B2137">
@@ -43131,7 +43210,7 @@
       </c>
     </row>
     <row r="2138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2138" s="3">
+      <c r="A2138" s="2">
         <v>44832</v>
       </c>
       <c r="B2138">
@@ -43148,7 +43227,7 @@
       </c>
     </row>
     <row r="2139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2139" s="3">
+      <c r="A2139" s="2">
         <v>44832</v>
       </c>
       <c r="B2139">
@@ -43165,7 +43244,7 @@
       </c>
     </row>
     <row r="2140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2140" s="3">
+      <c r="A2140" s="2">
         <v>44833</v>
       </c>
       <c r="B2140">
@@ -51611,6 +51690,788 @@
       </c>
       <c r="E2639" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2640" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B2640">
+        <v>-600</v>
+      </c>
+      <c r="C2640" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2640" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2640" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2641" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B2641">
+        <v>-175</v>
+      </c>
+      <c r="C2641" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2641" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2641" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2642" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B2642">
+        <v>-200</v>
+      </c>
+      <c r="C2642" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2642" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2642" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2643" s="2">
+        <v>45477</v>
+      </c>
+      <c r="B2643">
+        <v>-161</v>
+      </c>
+      <c r="C2643" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2643" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2643" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2644" s="2">
+        <v>45478</v>
+      </c>
+      <c r="B2644">
+        <v>184</v>
+      </c>
+      <c r="C2644" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>576</v>
+      </c>
+      <c r="E2644" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2645" s="2">
+        <v>45481</v>
+      </c>
+      <c r="B2645">
+        <v>1500</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2645" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2646" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B2646">
+        <v>-16.989999999999998</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2646" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2647" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B2647">
+        <v>-1120.18</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2647" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2648" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B2648">
+        <v>1518.16</v>
+      </c>
+      <c r="C2648" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2648" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2649" s="2">
+        <v>45485</v>
+      </c>
+      <c r="B2649">
+        <v>-366.69</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2649" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2650" s="2">
+        <v>45488</v>
+      </c>
+      <c r="B2650">
+        <v>-162.5</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2650" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2650" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2651" s="2">
+        <v>45488</v>
+      </c>
+      <c r="B2651">
+        <v>104.5</v>
+      </c>
+      <c r="C2651" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2651" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2652" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B2652">
+        <v>-134.31</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2652" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2653" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B2653">
+        <v>-230</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2653" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2653" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2654" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B2654">
+        <v>-1250</v>
+      </c>
+      <c r="C2654" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2654" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2654" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2655" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B2655">
+        <v>-25</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2655" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2656" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B2656">
+        <v>80</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2656" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2656" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2657" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B2657">
+        <v>1518.16</v>
+      </c>
+      <c r="C2657" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2657" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2658" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B2658">
+        <v>-366.69</v>
+      </c>
+      <c r="C2658" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2658" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2659" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B2659">
+        <v>-89.98</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2659" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2660" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B2660">
+        <v>-600</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2660" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2661" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B2661">
+        <v>-16.95</v>
+      </c>
+      <c r="C2661" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2661" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2662" s="2">
+        <v>45509</v>
+      </c>
+      <c r="B2662">
+        <v>-161</v>
+      </c>
+      <c r="C2662" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2662" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2663" s="2">
+        <v>45510</v>
+      </c>
+      <c r="B2663">
+        <v>-230</v>
+      </c>
+      <c r="C2663" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2663" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2664" s="2">
+        <v>45510</v>
+      </c>
+      <c r="B2664">
+        <v>-174</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2664" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2664" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2665" s="2">
+        <v>45512</v>
+      </c>
+      <c r="B2665">
+        <v>-962.06</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2665" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2666" s="2">
+        <v>45512</v>
+      </c>
+      <c r="B2666">
+        <v>1518.16</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2666" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2667" s="2">
+        <v>45513</v>
+      </c>
+      <c r="B2667">
+        <v>-366.69</v>
+      </c>
+      <c r="C2667" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2667" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2668" s="2">
+        <v>45514</v>
+      </c>
+      <c r="B2668">
+        <v>-48.99</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2668" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2669" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B2669">
+        <v>135</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2669" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2670" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B2670">
+        <v>-134.31</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2670" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2671" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B2671">
+        <v>-86.34</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2671" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2672" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B2672">
+        <v>1518.16</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2672" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2673" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B2673">
+        <v>-366.69</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2673" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2674" s="2">
+        <v>45528</v>
+      </c>
+      <c r="B2674">
+        <v>-27.57</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2674" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2675" s="2">
+        <v>45530</v>
+      </c>
+      <c r="B2675">
+        <v>-200</v>
+      </c>
+      <c r="C2675" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2675" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2676" s="2">
+        <v>45530</v>
+      </c>
+      <c r="B2676">
+        <v>-142</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2676" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2677" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B2677">
+        <v>-600</v>
+      </c>
+      <c r="C2677" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2677" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2678" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B2678">
+        <v>-16.95</v>
+      </c>
+      <c r="C2678" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2678" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2679" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B2679">
+        <v>-600</v>
+      </c>
+      <c r="C2679" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2679" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2680" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B2680">
+        <v>-161</v>
+      </c>
+      <c r="C2680" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2680" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2681" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B2681">
+        <v>1518.16</v>
+      </c>
+      <c r="C2681" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2681" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2682" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B2682">
+        <v>-366.69</v>
+      </c>
+      <c r="C2682" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2682" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2683" s="2">
+        <v>45544</v>
+      </c>
+      <c r="B2683">
+        <v>100</v>
+      </c>
+      <c r="C2683" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2683" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2684" s="2">
+        <v>45545</v>
+      </c>
+      <c r="B2684">
+        <v>465</v>
+      </c>
+      <c r="C2684" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2684" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2685" s="2">
+        <v>45546</v>
+      </c>
+      <c r="B2685">
+        <v>-1989.26</v>
+      </c>
+      <c r="C2685" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2685" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/SQL/Transactions Analysis/pcbanking.xlsx
+++ b/SQL/Transactions Analysis/pcbanking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\SQL\Transactions Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A982E-AE6F-4EA7-AA20-2A0EAF4B9BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB4E89-ECFF-408C-9255-4F452E3F7DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcbanking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8164" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8551" uniqueCount="636">
   <si>
     <t>-</t>
   </si>
@@ -1877,6 +1877,57 @@
   </si>
   <si>
     <t>Mb-Scotiabank Gold Amex Card 24302474</t>
+  </si>
+  <si>
+    <t>pos purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fpos Cks On The Way      Flore </t>
+  </si>
+  <si>
+    <t>payroll deposit</t>
+  </si>
+  <si>
+    <t>loans</t>
+  </si>
+  <si>
+    <t>withdrawal</t>
+  </si>
+  <si>
+    <t>customer transfer dr.</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>miscellaneous payment</t>
+  </si>
+  <si>
+    <t>service charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paypal </t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opos 40.24 Wnba League Pa+4420 </t>
+  </si>
+  <si>
+    <t>tax refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centreville Equipment Ltdcentr </t>
+  </si>
+  <si>
+    <t>canada carbon rebate</t>
+  </si>
+  <si>
+    <t>abm withdrawal</t>
+  </si>
+  <si>
+    <t>gst</t>
   </si>
 </sst>
 </file>
@@ -2731,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2778"/>
+  <dimension ref="A1:F2907"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2756" workbookViewId="0">
-      <selection activeCell="A2767" sqref="A2767"/>
+    <sheetView tabSelected="1" topLeftCell="A2883" workbookViewId="0">
+      <selection activeCell="A2906" sqref="A2906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54122,6 +54173,2199 @@
         <v>618</v>
       </c>
     </row>
+    <row r="2779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2779" s="2">
+        <v>45700</v>
+      </c>
+      <c r="B2779" s="3">
+        <v>-7.99</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2779" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2779" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2780" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B2780" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2780" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2780" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2780" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2781" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B2781" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2781" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2781" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2781" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2782" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B2782" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2782" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2782" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2783" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B2783" s="3">
+        <v>-250</v>
+      </c>
+      <c r="C2783" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2783" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2783" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2784" s="2">
+        <v>45712</v>
+      </c>
+      <c r="B2784" s="3">
+        <v>-118.97</v>
+      </c>
+      <c r="C2784" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2784" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2784" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2785" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B2785" s="3">
+        <v>-600</v>
+      </c>
+      <c r="C2785" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2785" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2785" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2786" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B2786" s="3">
+        <v>-16.95</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2786" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2786" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2787" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B2787" s="3">
+        <v>-2.95</v>
+      </c>
+      <c r="C2787" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2787" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2787" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2788" s="2">
+        <v>45720</v>
+      </c>
+      <c r="B2788" s="3">
+        <v>-161</v>
+      </c>
+      <c r="C2788" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2788" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2788" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2789" s="2">
+        <v>45722</v>
+      </c>
+      <c r="B2789" s="3">
+        <v>-75</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2789" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2789" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2790" s="2">
+        <v>45722</v>
+      </c>
+      <c r="B2790" s="3">
+        <v>-830</v>
+      </c>
+      <c r="C2790" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2790" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2790" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2791" s="2">
+        <v>45722</v>
+      </c>
+      <c r="B2791" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2791" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2791" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2791" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2792" s="2">
+        <v>45723</v>
+      </c>
+      <c r="B2792" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2792" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2792" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2792" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2793" s="2">
+        <v>45727</v>
+      </c>
+      <c r="B2793" s="3">
+        <v>-30</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2793" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2793" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2794" s="2">
+        <v>45728</v>
+      </c>
+      <c r="B2794" s="3">
+        <v>-20</v>
+      </c>
+      <c r="C2794" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2794" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2794" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2795" s="2">
+        <v>45729</v>
+      </c>
+      <c r="B2795" s="3">
+        <v>-260</v>
+      </c>
+      <c r="C2795" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2795" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2795" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2796" s="2">
+        <v>45729</v>
+      </c>
+      <c r="B2796" s="3">
+        <v>-147</v>
+      </c>
+      <c r="C2796" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2796" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2796" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2797" s="2">
+        <v>45729</v>
+      </c>
+      <c r="B2797" s="3">
+        <v>-85</v>
+      </c>
+      <c r="C2797" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2797" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2797" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2798" s="2">
+        <v>45736</v>
+      </c>
+      <c r="B2798" s="3">
+        <v>-200</v>
+      </c>
+      <c r="C2798" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2798" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2798" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2799" s="2">
+        <v>45736</v>
+      </c>
+      <c r="B2799" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2799" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2799" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2800" s="2">
+        <v>45737</v>
+      </c>
+      <c r="B2800" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2800" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2800" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2801" s="2">
+        <v>45740</v>
+      </c>
+      <c r="B2801" s="3">
+        <v>-118.97</v>
+      </c>
+      <c r="C2801" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2801" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2801" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2802" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2802" s="3">
+        <v>-600</v>
+      </c>
+      <c r="C2802" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2802" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2802" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2803" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2803" s="3">
+        <v>-16.95</v>
+      </c>
+      <c r="C2803" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2803" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2803" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2804" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B2804" s="3">
+        <v>-9.19</v>
+      </c>
+      <c r="C2804" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2804" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2804" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2805" s="2">
+        <v>45749</v>
+      </c>
+      <c r="B2805" s="3">
+        <v>-150</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2805" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2805" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2806" s="2">
+        <v>45750</v>
+      </c>
+      <c r="B2806" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2806" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2806" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2806" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2807" s="2">
+        <v>45751</v>
+      </c>
+      <c r="B2807" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2807" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2807" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2807" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2808" s="2">
+        <v>45751</v>
+      </c>
+      <c r="B2808" s="3">
+        <v>-161</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2808" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2808" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2809" s="2">
+        <v>45752</v>
+      </c>
+      <c r="B2809" s="3">
+        <v>-400</v>
+      </c>
+      <c r="C2809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2809" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2809" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2810" s="2">
+        <v>45752</v>
+      </c>
+      <c r="B2810" s="3">
+        <v>400</v>
+      </c>
+      <c r="C2810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2810" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2810" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2811" s="2">
+        <v>45754</v>
+      </c>
+      <c r="B2811" s="3">
+        <v>-850</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2811" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2811" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2812" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B2812" s="3">
+        <v>-150</v>
+      </c>
+      <c r="C2812" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2812" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2812" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2813" s="2">
+        <v>45763</v>
+      </c>
+      <c r="B2813" s="3">
+        <v>-9.19</v>
+      </c>
+      <c r="C2813" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2813" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2813" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2814" s="2">
+        <v>45763</v>
+      </c>
+      <c r="B2814" s="3">
+        <v>-147</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2814" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2814" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2815" s="2">
+        <v>45763</v>
+      </c>
+      <c r="B2815" s="3">
+        <v>-92</v>
+      </c>
+      <c r="C2815" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2815" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2815" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2816" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B2816" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2816" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2816" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2816" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2817" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B2817" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2817" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2817" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2817" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2818" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B2818" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2818" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2818" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2819" s="2">
+        <v>45766</v>
+      </c>
+      <c r="B2819" s="3">
+        <v>-520</v>
+      </c>
+      <c r="C2819" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2819" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2819" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2820" s="2">
+        <v>45768</v>
+      </c>
+      <c r="B2820" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2820" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2820" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2820" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2821" s="2">
+        <v>45768</v>
+      </c>
+      <c r="B2821" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2821" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2821" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2821" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2822" s="2">
+        <v>45768</v>
+      </c>
+      <c r="B2822" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2822" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2822" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2822" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2823" s="2">
+        <v>45768</v>
+      </c>
+      <c r="B2823" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2823" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2823" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2823" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2824" s="2">
+        <v>45769</v>
+      </c>
+      <c r="B2824" s="3">
+        <v>-118.97</v>
+      </c>
+      <c r="C2824" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2824" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2824" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2825" s="2">
+        <v>45771</v>
+      </c>
+      <c r="B2825" s="3">
+        <v>-230</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2825" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2825" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2826" s="2">
+        <v>45777</v>
+      </c>
+      <c r="B2826" s="3">
+        <v>-600</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2826" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2826" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2827" s="2">
+        <v>45777</v>
+      </c>
+      <c r="B2827" s="3">
+        <v>-16.95</v>
+      </c>
+      <c r="C2827" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2827" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2827" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2828" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B2828" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2828" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2828" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2828" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2829" s="2">
+        <v>45779</v>
+      </c>
+      <c r="B2829" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2829" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2829" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2829" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2830" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B2830" s="3">
+        <v>-350</v>
+      </c>
+      <c r="C2830" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2830" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2830" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2831" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B2831" s="3">
+        <v>-161</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2831" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2831" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2832" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B2832" s="3">
+        <v>15</v>
+      </c>
+      <c r="C2832" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2832" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2832" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2833" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B2833" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2833" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2833" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2833" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2834" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B2834" s="3">
+        <v>-30</v>
+      </c>
+      <c r="C2834" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2834" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2834" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2835" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B2835" s="3">
+        <v>-57.54</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2835" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2835" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2836" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B2836" s="3">
+        <v>-163.96</v>
+      </c>
+      <c r="C2836" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2836" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2836" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2837" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B2837" s="3">
+        <v>-306.5</v>
+      </c>
+      <c r="C2837" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2837" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2837" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2838" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B2838" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2838" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2838" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2838" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2839" s="2">
+        <v>45793</v>
+      </c>
+      <c r="B2839" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2839" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2839" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2839" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2840" s="2">
+        <v>45793</v>
+      </c>
+      <c r="B2840" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C2840" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2840" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2840" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2841" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B2841" s="3">
+        <v>-125</v>
+      </c>
+      <c r="C2841" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2841" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2841" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2842" s="2">
+        <v>45798</v>
+      </c>
+      <c r="B2842" s="3">
+        <v>-75</v>
+      </c>
+      <c r="C2842" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2842" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2842" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2843" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B2843" s="3">
+        <v>-118.97</v>
+      </c>
+      <c r="C2843" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2843" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2843" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2844" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B2844" s="3">
+        <v>231.44</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2844" t="s">
+        <v>631</v>
+      </c>
+      <c r="E2844" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2845" s="2">
+        <v>45802</v>
+      </c>
+      <c r="B2845" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2845" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2845" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2846" s="2">
+        <v>45804</v>
+      </c>
+      <c r="B2846" s="3">
+        <v>-56.37</v>
+      </c>
+      <c r="C2846" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2846" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2846" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2847" s="2">
+        <v>45805</v>
+      </c>
+      <c r="B2847" s="3">
+        <v>-230</v>
+      </c>
+      <c r="C2847" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2847" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2847" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2848" s="2">
+        <v>45805</v>
+      </c>
+      <c r="B2848" s="3">
+        <v>-172</v>
+      </c>
+      <c r="C2848" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2848" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2848" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2849" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B2849" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2849" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2849" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2849" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2850" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B2850" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2850" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2850" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2851" s="2">
+        <v>45807</v>
+      </c>
+      <c r="B2851" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2851" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2851" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2851" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2852" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2852" s="3">
+        <v>-16.95</v>
+      </c>
+      <c r="C2852" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2852" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2852" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2853" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B2853" s="3">
+        <v>-600</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2853" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2853" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2854" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B2854" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2854" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2854" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2854" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2855" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B2855" s="3">
+        <v>-274.61</v>
+      </c>
+      <c r="C2855" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2855" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2855" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2856" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B2856" s="3">
+        <v>-161</v>
+      </c>
+      <c r="C2856" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2856" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2856" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2857" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B2857" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2857" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2857" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2857" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2858" s="2">
+        <v>45817</v>
+      </c>
+      <c r="B2858" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2858" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2858" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2858" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2859" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B2859" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2859" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2859" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2859" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2860" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B2860" s="3">
+        <v>1524.55</v>
+      </c>
+      <c r="C2860" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2860" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2860" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2861" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B2861" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2861" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2861" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2862" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B2862" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2862" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2862" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2862" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2863" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B2863" s="3">
+        <v>-200</v>
+      </c>
+      <c r="C2863" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2863" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2863" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2864" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B2864" s="3">
+        <v>198</v>
+      </c>
+      <c r="C2864" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2864" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2864" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2865" s="2">
+        <v>45824</v>
+      </c>
+      <c r="B2865" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2865" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2865" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2865" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2866" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B2866" s="3">
+        <v>-250</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2866" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2866" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2867" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B2867" s="3">
+        <v>-31.5</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2867" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2867" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2868" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B2868" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2868" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2868" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2869" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B2869" s="3">
+        <v>-177.66</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2869" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2869" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2870" s="2">
+        <v>45831</v>
+      </c>
+      <c r="B2870" s="3">
+        <v>-118.97</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2870" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2870" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2871" s="2">
+        <v>45833</v>
+      </c>
+      <c r="B2871" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2871" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2871" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2872" s="2">
+        <v>45833</v>
+      </c>
+      <c r="B2872" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2872" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2872" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2873" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B2873" s="3">
+        <v>1573.99</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2873" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2873" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2874" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B2874" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2874" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2874" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2875" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B2875" s="3">
+        <v>-50</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2875" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2875" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2876" s="2">
+        <v>45838</v>
+      </c>
+      <c r="B2876" s="3">
+        <v>-600</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2876" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2876" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2877" s="2">
+        <v>45838</v>
+      </c>
+      <c r="B2877" s="3">
+        <v>-16.95</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2877" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2877" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2878" s="2">
+        <v>45840</v>
+      </c>
+      <c r="B2878" s="3">
+        <v>-161.38</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2878" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2878" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2879" s="2">
+        <v>45840</v>
+      </c>
+      <c r="B2879" s="3">
+        <v>-160</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2879" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2879" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2880" s="2">
+        <v>45842</v>
+      </c>
+      <c r="B2880" s="3">
+        <v>-161</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2880" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2880" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2881" s="2">
+        <v>45842</v>
+      </c>
+      <c r="B2881" s="3">
+        <v>184.25</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2881" t="s">
+        <v>635</v>
+      </c>
+      <c r="E2881" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2882" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B2882" s="3">
+        <v>-150</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2882" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2882" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2883" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B2883" s="3">
+        <v>-150</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2883" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2883" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2884" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B2884" s="3">
+        <v>1587.11</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2884" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2885" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B2885" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2885" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2885" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2886" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B2886" s="3">
+        <v>-300</v>
+      </c>
+      <c r="C2886" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2886" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2886" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2887" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B2887" s="3">
+        <v>-146</v>
+      </c>
+      <c r="C2887" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2887" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2887" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2888" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B2888" s="3">
+        <v>-142</v>
+      </c>
+      <c r="C2888" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2888" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2888" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2889" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B2889" s="3">
+        <v>400</v>
+      </c>
+      <c r="C2889" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2889" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2889" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2890" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B2890" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2890" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2891" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B2891" s="3">
+        <v>-200</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2891" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2892" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B2892" s="3">
+        <v>-118.97</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2892" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2893" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B2893" s="3">
+        <v>-150</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2893" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2894" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B2894" s="3">
+        <v>-250</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2894" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2895" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B2895" s="3">
+        <v>1587.11</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2895" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2896" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B2896" s="3">
+        <v>-366.69</v>
+      </c>
+      <c r="C2896" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2896" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2897" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B2897" s="3">
+        <v>-350</v>
+      </c>
+      <c r="C2897" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2897" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2898" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B2898" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C2898" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2898" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2899" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B2899" s="3">
+        <v>-22.39</v>
+      </c>
+      <c r="C2899" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2899" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2900" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B2900" s="3">
+        <v>-146</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2900" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2901" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B2901" s="3">
+        <v>-600</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2901" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2902" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B2902" s="3">
+        <v>-16.95</v>
+      </c>
+      <c r="C2902" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2902" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2903" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B2903" s="3">
+        <v>-100</v>
+      </c>
+      <c r="C2903" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2903" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2904" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B2904" s="3">
+        <v>-5.18</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2904" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2905" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B2905" s="3">
+        <v>-161</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2905" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2906" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B2906" s="3">
+        <v>-142.71</v>
+      </c>
+      <c r="C2906" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2906" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2907" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B2907" s="3">
+        <v>1587.11</v>
+      </c>
+      <c r="C2907" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2907" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
